--- a/GATEWAY/A1#111#GRUPPOMAXEDXX/GRUPPO_MAXED_DI_DANESI_EMANUELE_ALESSANDRO_FABIO_SNC/GMSoftFSE/V.1.1.0/accreditamento-checklist_V8.2.5.xlsx
+++ b/GATEWAY/A1#111#GRUPPOMAXEDXX/GRUPPO_MAXED_DI_DANESI_EMANUELE_ALESSANDRO_FABIO_SNC/GMSoftFSE/V.1.1.0/accreditamento-checklist_V8.2.5.xlsx
@@ -49,7 +49,832 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="474">
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 17" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LAB_CT4</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 18" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_CERT_VAC_CT18</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_CERT_VAC_CT19</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Certificato Vaccinale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 18" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Certificato Vaccinale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 19" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_SING_VAC_CT4</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_SING_VAC_CT20</t>
+  </si>
+  <si>
+    <t>campo valorizzabile tramite selezione da un set di valori ammessi</t>
+  </si>
+  <si>
+    <t>Gruppo Maxed di Danesi Emanuele Alessandro Fabio snc</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 30" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT24</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT25</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 24" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 25" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 26" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT26_KO</t>
+  </si>
+  <si>
+    <t>4, 452</t>
+  </si>
+  <si>
+    <t>417, 418, 419, 460</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT24_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT19_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT27_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 27" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_PSS_CT22_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT25_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 25" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LAB_CT18</t>
+  </si>
+  <si>
+    <t>28,36,44,53,55,56,57,58,59,60,61,62, 466</t>
+  </si>
+  <si>
+    <t>29,37,45,64,66,67,68,69,70,71,72,73,74, 467</t>
+  </si>
+  <si>
+    <t>31,39,47,76,78,79,80,81,82,83,84,85,86,87,88,89,90,91,92,93, 462</t>
+  </si>
+  <si>
+    <t>33,41,49,95,97,98,99,100,101,102,103,104,105,106, 464</t>
+  </si>
+  <si>
+    <t>34,42,50,108,110,111,112,113,114,115,116,117,118,119,120,121, 465</t>
+  </si>
+  <si>
+    <t>35,43,51,123,125,126,127,128,129,130,131,132,133,134,135,136,137,138,139,140,141,142,143,144,145,146, 463</t>
+  </si>
+  <si>
+    <t>32,40,48,152,154,155,156,157,158,159,160,161,162,163,164,165,166,167,168,169, 461, 468</t>
+  </si>
+  <si>
+    <t>30,38,46,175,177,178,179,180,181,182,183,184,185,186,187,188,189,190, 469</t>
+  </si>
+  <si>
+    <t>423,424,425,427,428,429,430,431,432,433,434,435,436,437,438,439,440,441,442,443,448,449, 470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">una volta ripristinato il dato mancante il Backoffice  rinvierà al gateway per la validazione </t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.  
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>3) Nel caso in cui tra le tipologie documentali oggetto di accreditamento per l'applicativo figurino PSS, RAP, RAD, RSA, LDO, LAB, VPS, SING_VACC, CERT_VACC i relativi casi di test con id 444, 417, 418, 460, 448, 450, 452,454, 456, 457, 458, 471 che recepiscono quanto previsto dal Decreto 07 settembre 2023, devono essere obbligatoriamente eseguiti e compilati (la colonna APPLICABILITA' deve essere valorizzata con SI)</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT26</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 26" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>471, 472</t>
+  </si>
+  <si>
+    <t>subject_application_vendor: GRUPPO_MAXED_DI_DANESI_EMANUELE_ALESSANDRO_FABIO_SNC</t>
+  </si>
+  <si>
+    <t>subject_application_id: GMSoftFSE</t>
+  </si>
+  <si>
+    <t>subject_application_version: V.1.1.0</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 29" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 28" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> campo valorizzato in automatico tramite dati recuperati da servizi esterni</t>
+  </si>
+  <si>
+    <t>c ampo obbligatorio</t>
+  </si>
+  <si>
+    <t>l’applicativo effettua controlli preventivi sul dato inserito</t>
+  </si>
+  <si>
+    <t>altro (specificare)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'applicativo inserisce in autonomia nel cda   &lt;signatureCode code="S" /&gt;  il valore S  se firmato digitalmente.  Se il medico non firma digitalmente  non verrà creato nessun cda. </t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST- OK" riportata nei documenti "Caso di test - Trasfusionale" e "CDA2_Trasfusionale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+</t>
+  </si>
+  <si>
+    <t>5) Se il test NON è applicabile la colonna APPLICABILITA' riporterà NO e dovrà essere compilata esclusivamente la colonna RAZIONALE DI APPLICABILITA' con le motivazioni per cui il test non è applicabile. Il campo è valorizzabile tramite selezione da menù a tendina (campo/sezione non gestito/a in modo strutturato dall’applicativo;c ampo obbligatorio; campo valorizzato di default; campo valorizzato in automatico tramite dati recuperati da servizi esterni; campo valorizzabile tramite selezione da un set di valori ammessi; l’applicativo effettua controlli preventivi sul dato inserito; altro (specificare)). Nel caso in cui si selezioni l'opzione "Altro (specificare)" è necessario compilare la colonna RAZIONALE DI "APPLICABILITA' - ALTRO" con le motivazioni per le quali il test non è applicabile.</t>
+  </si>
+  <si>
+    <t>6) La colonna TEST AUTOCERTIFICATO non deve mai essere compilata dal fornitore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Necessario compilare sempre le righe 2,3,4,5 con rispettivamente:
+Nome fornitore dell'applicativo
+nome applicazione: subject_application_id
+Nome fornitore: subject_application_vendor
+versione applicazione: subject_application_version
+</t>
+  </si>
+  <si>
+    <t>RAP</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT1</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT2</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT3</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_TOKEN_JWT_RAP_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_TOKEN_JWT_CAMPO_RAP_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>UNKNOWN_WORKFLOW_ID</t>
+  </si>
+  <si>
+    <t>ERRORE VALIDAZIONE GW</t>
+  </si>
+  <si>
+    <t>campo obbligatorio</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT23_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>TIPO DOCUMENTO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST OK - HLA" riportata nei documenti "Caso di test - Trasfusionale" e "CDA2_Trasfusionale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+</t>
+  </si>
+  <si>
+    <t>448, 449</t>
+  </si>
+  <si>
+    <t>450, 451</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>454, 455</t>
+  </si>
+  <si>
+    <t>456, 457</t>
+  </si>
+  <si>
+    <t>458, 459</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT24</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Anatomia Patologica dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 24" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LAB_CT17</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_RAP_TIMEOUT</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT12_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT13_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT14_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT15_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT17_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT18_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT20_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT21_KO</t>
+  </si>
+  <si>
+    <t>Per questo caso di test è richiesta la sola descrizione del comportamento a fronte di un timeout, da inserire nelle colonne relative a:
+"ERRORE BLOCCANTE (SI/NO)", "ERRORE VISIBILE A UTENTE (SI/NO)", "MESSAGGIO DI ERRORE", "GESTITO IN BACKOFFICE (SI/NO)", "PRESENTE CODA DI RETRY AUTOMATICA PER L'INVIO DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)",  "INVIO MANUALE DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)", "GESTIONE ERRORE".</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT22_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT17</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT18</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 17" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Anatomia Patologica dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 20" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT30</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT31</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 31" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 24" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 24" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT32_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 32" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_CERT_VAC_CT20_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_SING_VAC_CT21_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Anatomia Patologica dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Anatomia Patologica dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO.xlsx" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT25</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 25" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LAB_CT7_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>8.2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>4) Se il test è applicabile la colonna APPLICABILITA' deve essere compilata con SI e dovranno essere valorizzate:
+    DATA ESECUZIONE, 
+    TIMESTAMP, 
+    TRACEID,
+    WORKFLOWINSTANCEID (ove ritornato in response, qualora non ritornato il WORKFLOWINSTANCEID puo' essere lasciato blank), 
+    ERRORE BLOCCANTE (SI/NO) da compilare solo per i casi KO (ovvero con colonna CASO OK / KO= KO) e per i casi di test di TIMEOUT,
+    ERRORE VISIBILE A UTENTE (SI/NO) da compilare solo per i casi KO (ovvero con colonna CASO OK / KO= KO) e per i casi di test di TIMEOUT,
+    MESSAGGIO DI ERRORE da compilare con il messaggio di errore visualizzato dall’applicativo, solo per i casi KO (ovvero con colonna CASO OK / KO= KO) e per i casi di test di TIMEOUT visibili all'utente (colonna ERRORE VISIBILE A UTENTE (SI/NO)=SI)
+    GESTITO IN BACKOFFICE (SI/NO) da compilare solo per i casi KO (ovvero con colonna CASO OK / KO= KO) e per i casi di test di TIMEOUT,
+    PRESENTE CODA DI RETRY AUTOMATICA PER L'INVIO DEL DOCUMENTO A FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO) da compilare solo per i casi KO (ovvero con colonna CASO OK / KO= KO) e per i casi di test di TIMEOUT,
+   INVIO MANUALE DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO) da compilare solo per i casi KO  (ovvero con colonna CASO OK / KO= KO) e per i casi di test di TIMEOUT,
+    GESTIONE ERRORE da compilare con la procedura che viene adottata per la gestione dell'errore, solo per i casi KO (ovvero con CASO OK / KO= KO) e per i casi di test di TIMEOUT,  specificando le modalità di invio del documento clinico al FSE a seguito della correzione dell'errore e chiarendo se è possibile per l'utente (medico) proseguire con il processo e produrre il documento. Esclusivamente per i casi di test di TIMEOUT, qualora non fosse prevista una coda di retry e la gestione dell'errore non fossa gestita da un operatore di backoffice, indicare le modalità attraverso cui è reso esplicito all’utente (medico) di effettuare nuovi tentativi di invio verso il FSE fino al ripristino del servizio di validazione.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LAB_CT15_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LAB_CT16_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT6_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT8_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT9_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT10_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT11_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT12_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT13_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT14_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT15_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT16_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT6_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT8_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT9_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT10_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT11_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT12_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT13_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT14_KO</t>
+  </si>
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
@@ -966,834 +1791,6 @@
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_LAB_CT14_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_LAB_CT15_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_LAB_CT16_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_LDO_CT6_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_LDO_CT8_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_LDO_CT9_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_LDO_CT10_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_LDO_CT11_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_LDO_CT12_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_LDO_CT13_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_LDO_CT14_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_LDO_CT15_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_LDO_CT16_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT6_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT8_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT9_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT10_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT11_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT12_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT13_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT14_KO</t>
-  </si>
-  <si>
-    <t>4) Se il test è applicabile la colonna APPLICABILITA' deve essere compilata con SI e dovranno essere valorizzate:
-    DATA ESECUZIONE, 
-    TIMESTAMP, 
-    TRACEID,
-    WORKFLOWINSTANCEID (ove ritornato in response, qualora non ritornato il WORKFLOWINSTANCEID puo' essere lasciato blank), 
-    ERRORE BLOCCANTE (SI/NO) da compilare solo per i casi KO (ovvero con colonna CASO OK / KO= KO) e per i casi di test di TIMEOUT,
-    ERRORE VISIBILE A UTENTE (SI/NO) da compilare solo per i casi KO (ovvero con colonna CASO OK / KO= KO) e per i casi di test di TIMEOUT,
-    MESSAGGIO DI ERRORE da compilare con il messaggio di errore visualizzato dall’applicativo, solo per i casi KO (ovvero con colonna CASO OK / KO= KO) e per i casi di test di TIMEOUT visibili all'utente (colonna ERRORE VISIBILE A UTENTE (SI/NO)=SI)
-    GESTITO IN BACKOFFICE (SI/NO) da compilare solo per i casi KO (ovvero con colonna CASO OK / KO= KO) e per i casi di test di TIMEOUT,
-    PRESENTE CODA DI RETRY AUTOMATICA PER L'INVIO DEL DOCUMENTO A FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO) da compilare solo per i casi KO (ovvero con colonna CASO OK / KO= KO) e per i casi di test di TIMEOUT,
-   INVIO MANUALE DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO) da compilare solo per i casi KO  (ovvero con colonna CASO OK / KO= KO) e per i casi di test di TIMEOUT,
-    GESTIONE ERRORE da compilare con la procedura che viene adottata per la gestione dell'errore, solo per i casi KO (ovvero con CASO OK / KO= KO) e per i casi di test di TIMEOUT,  specificando le modalità di invio del documento clinico al FSE a seguito della correzione dell'errore e chiarendo se è possibile per l'utente (medico) proseguire con il processo e produrre il documento. Esclusivamente per i casi di test di TIMEOUT, qualora non fosse prevista una coda di retry e la gestione dell'errore non fossa gestita da un operatore di backoffice, indicare le modalità attraverso cui è reso esplicito all’utente (medico) di effettuare nuovi tentativi di invio verso il FSE fino al ripristino del servizio di validazione.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_RAP_TIMEOUT</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT12_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT13_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT14_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT15_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT17_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT18_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT20_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT21_KO</t>
-  </si>
-  <si>
-    <t>Per questo caso di test è richiesta la sola descrizione del comportamento a fronte di un timeout, da inserire nelle colonne relative a:
-"ERRORE BLOCCANTE (SI/NO)", "ERRORE VISIBILE A UTENTE (SI/NO)", "MESSAGGIO DI ERRORE", "GESTITO IN BACKOFFICE (SI/NO)", "PRESENTE CODA DI RETRY AUTOMATICA PER L'INVIO DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)",  "INVIO MANUALE DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)", "GESTIONE ERRORE".</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT22_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
-</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_LDO_CT17</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_LDO_CT18</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 17" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Anatomia Patologica dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
-</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 20" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_VPS_CT30</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_VPS_CT31</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 31" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 24" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 24" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_VPS_CT32_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 32" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_CERT_VAC_CT20_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_SING_VAC_CT21_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Anatomia Patologica dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
-</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Anatomia Patologica dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO.xlsx" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT25</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 25" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_LAB_CT7_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>8.2.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 29" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 28" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> campo valorizzato in automatico tramite dati recuperati da servizi esterni</t>
-  </si>
-  <si>
-    <t>c ampo obbligatorio</t>
-  </si>
-  <si>
-    <t>l’applicativo effettua controlli preventivi sul dato inserito</t>
-  </si>
-  <si>
-    <t>Il campo è valorizzabile tramite selezione da menù a tendina</t>
-  </si>
-  <si>
-    <t>altro (specificare)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L'applicativo inserisce in autonomia nel cda   &lt;signatureCode code="S" /&gt;  il valore S  se firmato digitalmente.  Se il medico non firma digitalmente  non verrà creato nessun cda. </t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST- OK" riportata nei documenti "Caso di test - Trasfusionale" e "CDA2_Trasfusionale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
-</t>
-  </si>
-  <si>
-    <t>5) Se il test NON è applicabile la colonna APPLICABILITA' riporterà NO e dovrà essere compilata esclusivamente la colonna RAZIONALE DI APPLICABILITA' con le motivazioni per cui il test non è applicabile. Il campo è valorizzabile tramite selezione da menù a tendina (campo/sezione non gestito/a in modo strutturato dall’applicativo;c ampo obbligatorio; campo valorizzato di default; campo valorizzato in automatico tramite dati recuperati da servizi esterni; campo valorizzabile tramite selezione da un set di valori ammessi; l’applicativo effettua controlli preventivi sul dato inserito; altro (specificare)). Nel caso in cui si selezioni l'opzione "Altro (specificare)" è necessario compilare la colonna RAZIONALE DI "APPLICABILITA' - ALTRO" con le motivazioni per le quali il test non è applicabile.</t>
-  </si>
-  <si>
-    <t>6) La colonna TEST AUTOCERTIFICATO non deve mai essere compilata dal fornitore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Necessario compilare sempre le righe 2,3,4,5 con rispettivamente:
-Nome fornitore dell'applicativo
-nome applicazione: subject_application_id
-Nome fornitore: subject_application_vendor
-versione applicazione: subject_application_version
-</t>
-  </si>
-  <si>
-    <t>RAP</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT1</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT2</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT3</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_TOKEN_JWT_RAP_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_TOKEN_JWT_CAMPO_RAP_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>UNKNOWN_WORKFLOW_ID</t>
-  </si>
-  <si>
-    <t>ERRORE VALIDAZIONE GW</t>
-  </si>
-  <si>
-    <t>campo obbligatorio</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT23_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>TIPO DOCUMENTO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST OK - HLA" riportata nei documenti "Caso di test - Trasfusionale" e "CDA2_Trasfusionale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
-</t>
-  </si>
-  <si>
-    <t>448, 449</t>
-  </si>
-  <si>
-    <t>450, 451</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>454, 455</t>
-  </si>
-  <si>
-    <t>456, 457</t>
-  </si>
-  <si>
-    <t>458, 459</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT24</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Anatomia Patologica dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 24" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_LAB_CT17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 17" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
-</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_LAB_CT4</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 18" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_CERT_VAC_CT18</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_CERT_VAC_CT19</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Certificato Vaccinale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 18" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Certificato Vaccinale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 19" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_SING_VAC_CT4</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_SING_VAC_CT20</t>
-  </si>
-  <si>
-    <t>campo valorizzabile tramite selezione da un set di valori ammessi</t>
-  </si>
-  <si>
-    <t>Gruppo Maxed di Danesi Emanuele Alessandro Fabio snc</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 30" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RSA_CT24</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RSA_CT25</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 24" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 25" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 26" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RSA_CT26_KO</t>
-  </si>
-  <si>
-    <t>4, 452</t>
-  </si>
-  <si>
-    <t>417, 418, 419, 460</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT24_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_LDO_CT19_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RSA_CT27_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 27" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_PSS_CT22_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT25_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 25" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_LAB_CT18</t>
-  </si>
-  <si>
-    <t>28,36,44,53,55,56,57,58,59,60,61,62, 466</t>
-  </si>
-  <si>
-    <t>29,37,45,64,66,67,68,69,70,71,72,73,74, 467</t>
-  </si>
-  <si>
-    <t>31,39,47,76,78,79,80,81,82,83,84,85,86,87,88,89,90,91,92,93, 462</t>
-  </si>
-  <si>
-    <t>33,41,49,95,97,98,99,100,101,102,103,104,105,106, 464</t>
-  </si>
-  <si>
-    <t>34,42,50,108,110,111,112,113,114,115,116,117,118,119,120,121, 465</t>
-  </si>
-  <si>
-    <t>35,43,51,123,125,126,127,128,129,130,131,132,133,134,135,136,137,138,139,140,141,142,143,144,145,146, 463</t>
-  </si>
-  <si>
-    <t>32,40,48,152,154,155,156,157,158,159,160,161,162,163,164,165,166,167,168,169, 461, 468</t>
-  </si>
-  <si>
-    <t>30,38,46,175,177,178,179,180,181,182,183,184,185,186,187,188,189,190, 469</t>
-  </si>
-  <si>
-    <t>423,424,425,427,428,429,430,431,432,433,434,435,436,437,438,439,440,441,442,443,448,449, 470</t>
-  </si>
-  <si>
-    <t xml:space="preserve">una volta ripristinato il dato mancante il Backoffice  rinvierà al gateway per la validazione </t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.  
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>3) Nel caso in cui tra le tipologie documentali oggetto di accreditamento per l'applicativo figurino PSS, RAP, RAD, RSA, LDO, LAB, VPS, SING_VACC, CERT_VACC i relativi casi di test con id 444, 417, 418, 460, 448, 450, 452,454, 456, 457, 458, 471 che recepiscono quanto previsto dal Decreto 07 settembre 2023, devono essere obbligatoriamente eseguiti e compilati (la colonna APPLICABILITA' deve essere valorizzata con SI)</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT26</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 26" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>471, 472</t>
-  </si>
-  <si>
-    <t>subject_application_vendor: GRUPPO_MAXED_DI_DANESI_EMANUELE_ALESSANDRO_FABIO_SNC</t>
-  </si>
-  <si>
-    <t>subject_application_id: GMSoftFSE</t>
-  </si>
-  <si>
-    <t>subject_application_version: V.1.1.0</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
 </sst>
 </file>
@@ -2809,37 +2806,37 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>165</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="90">
       <c r="A2" s="2" t="s">
-        <v>383</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="26.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>166</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="54.75" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>464</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="208.5" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>273</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="75.75" customHeight="1">
       <c r="A6" s="17" t="s">
-        <v>381</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="17" t="s">
-        <v>382</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -2847,17 +2844,17 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>167</v>
+        <v>393</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="36.75" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>168</v>
+        <v>394</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>169</v>
+        <v>395</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -2890,12 +2887,12 @@
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" customHeight="1">
       <c r="B1" s="3" t="s">
-        <v>170</v>
+        <v>396</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1">
       <c r="B2" s="4" t="s">
-        <v>171</v>
+        <v>397</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1" thickBot="1">
@@ -2906,7 +2903,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>172</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.25" customHeight="1">
@@ -2914,7 +2911,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>173</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14.25" customHeight="1">
@@ -2922,7 +2919,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>174</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14.25" customHeight="1">
@@ -2930,7 +2927,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>175</v>
+        <v>401</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30" customHeight="1">
@@ -2938,7 +2935,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>164</v>
+        <v>390</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14.25" customHeight="1" thickBot="1">
@@ -2946,7 +2943,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>176</v>
+        <v>402</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.25" customHeight="1"/>
@@ -3949,10 +3946,10 @@
   <dimension ref="A1:W755"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B130" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="H70" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I194" sqref="I194"/>
+      <selection pane="bottomRight" activeCell="K118" sqref="K118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3999,11 +3996,11 @@
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1">
       <c r="A2" s="49" t="s">
-        <v>177</v>
+        <v>403</v>
       </c>
       <c r="B2" s="50"/>
       <c r="C2" s="51" t="s">
-        <v>424</v>
+        <v>14</v>
       </c>
       <c r="D2" s="50"/>
       <c r="F2" s="6"/>
@@ -4027,11 +4024,11 @@
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1">
       <c r="A3" s="52" t="s">
-        <v>178</v>
+        <v>404</v>
       </c>
       <c r="B3" s="53"/>
       <c r="C3" s="58" t="s">
-        <v>469</v>
+        <v>59</v>
       </c>
       <c r="D3" s="50"/>
       <c r="F3" s="6"/>
@@ -4057,7 +4054,7 @@
       <c r="A4" s="54"/>
       <c r="B4" s="55"/>
       <c r="C4" s="58" t="s">
-        <v>468</v>
+        <v>58</v>
       </c>
       <c r="D4" s="50"/>
       <c r="E4" s="4"/>
@@ -4084,7 +4081,7 @@
       <c r="A5" s="56"/>
       <c r="B5" s="57"/>
       <c r="C5" s="58" t="s">
-        <v>470</v>
+        <v>60</v>
       </c>
       <c r="D5" s="50"/>
       <c r="F5" s="6"/>
@@ -4174,73 +4171,73 @@
     </row>
     <row r="9" spans="1:23" s="18" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
       <c r="A9" s="19" t="s">
-        <v>179</v>
+        <v>405</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>180</v>
+        <v>406</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>181</v>
+        <v>407</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>182</v>
+        <v>408</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>183</v>
+        <v>409</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>184</v>
+        <v>410</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>185</v>
+        <v>411</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>186</v>
+        <v>412</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>187</v>
+        <v>413</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>188</v>
+        <v>414</v>
       </c>
       <c r="K9" s="20" t="s">
-        <v>189</v>
+        <v>415</v>
       </c>
       <c r="L9" s="20" t="s">
-        <v>147</v>
+        <v>373</v>
       </c>
       <c r="M9" s="20" t="s">
-        <v>190</v>
+        <v>416</v>
       </c>
       <c r="N9" s="20" t="s">
-        <v>191</v>
+        <v>417</v>
       </c>
       <c r="O9" s="20" t="s">
-        <v>192</v>
+        <v>418</v>
       </c>
       <c r="P9" s="20" t="s">
-        <v>193</v>
+        <v>419</v>
       </c>
       <c r="Q9" s="20" t="s">
-        <v>148</v>
+        <v>374</v>
       </c>
       <c r="R9" s="20" t="s">
-        <v>149</v>
+        <v>375</v>
       </c>
       <c r="S9" s="20" t="s">
-        <v>194</v>
+        <v>420</v>
       </c>
       <c r="T9" s="20" t="s">
-        <v>195</v>
+        <v>421</v>
       </c>
       <c r="U9" s="21" t="s">
-        <v>196</v>
+        <v>422</v>
       </c>
       <c r="V9" s="20" t="s">
-        <v>197</v>
+        <v>423</v>
       </c>
       <c r="W9" s="22" t="s">
-        <v>198</v>
+        <v>424</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4248,16 +4245,16 @@
         <v>4</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>200</v>
+        <v>426</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>411</v>
+        <v>1</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>287</v>
+        <v>148</v>
       </c>
       <c r="F10" s="36"/>
       <c r="G10" s="36"/>
@@ -4277,7 +4274,7 @@
       <c r="U10" s="39"/>
       <c r="V10" s="40"/>
       <c r="W10" s="38" t="s">
-        <v>201</v>
+        <v>427</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4285,16 +4282,16 @@
         <v>28</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>200</v>
+        <v>426</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>207</v>
+        <v>433</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>208</v>
+        <v>434</v>
       </c>
       <c r="F11" s="37"/>
       <c r="G11" s="37"/>
@@ -4314,7 +4311,7 @@
       <c r="U11" s="39"/>
       <c r="V11" s="40"/>
       <c r="W11" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4322,16 +4319,16 @@
         <v>29</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>202</v>
+        <v>428</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>210</v>
+        <v>436</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>208</v>
+        <v>434</v>
       </c>
       <c r="F12" s="37"/>
       <c r="G12" s="37"/>
@@ -4351,7 +4348,7 @@
       <c r="U12" s="39"/>
       <c r="V12" s="40"/>
       <c r="W12" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4359,16 +4356,16 @@
         <v>30</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>211</v>
+        <v>437</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>212</v>
+        <v>438</v>
       </c>
       <c r="E13" s="43" t="s">
-        <v>208</v>
+        <v>434</v>
       </c>
       <c r="F13" s="37"/>
       <c r="G13" s="37"/>
@@ -4388,7 +4385,7 @@
       <c r="U13" s="39"/>
       <c r="V13" s="40"/>
       <c r="W13" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
@@ -4396,60 +4393,60 @@
         <v>31</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>203</v>
+        <v>429</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>213</v>
+        <v>439</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>208</v>
+        <v>434</v>
       </c>
       <c r="F14" s="45">
         <v>45786</v>
       </c>
       <c r="G14" s="37" t="s">
-        <v>40</v>
+        <v>266</v>
       </c>
       <c r="H14" s="37" t="s">
-        <v>39</v>
+        <v>265</v>
       </c>
       <c r="I14" s="42" t="s">
-        <v>392</v>
+        <v>117</v>
       </c>
       <c r="J14" s="38" t="s">
-        <v>229</v>
+        <v>455</v>
       </c>
       <c r="K14" s="38"/>
       <c r="L14" s="38"/>
       <c r="M14" s="38" t="s">
-        <v>146</v>
+        <v>372</v>
       </c>
       <c r="N14" s="38" t="s">
-        <v>229</v>
+        <v>455</v>
       </c>
       <c r="O14" s="38" t="s">
-        <v>393</v>
+        <v>118</v>
       </c>
       <c r="P14" s="38" t="s">
-        <v>229</v>
+        <v>455</v>
       </c>
       <c r="Q14" s="38" t="s">
-        <v>146</v>
+        <v>372</v>
       </c>
       <c r="R14" s="38" t="s">
-        <v>229</v>
+        <v>455</v>
       </c>
       <c r="S14" s="38" t="s">
-        <v>460</v>
+        <v>50</v>
       </c>
       <c r="T14" s="38"/>
       <c r="U14" s="39"/>
       <c r="V14" s="40"/>
       <c r="W14" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
@@ -4457,60 +4454,60 @@
         <v>32</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>214</v>
+        <v>440</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>215</v>
+        <v>441</v>
       </c>
       <c r="E15" s="43" t="s">
-        <v>208</v>
+        <v>434</v>
       </c>
       <c r="F15" s="45">
         <v>45786</v>
       </c>
       <c r="G15" s="37" t="s">
-        <v>34</v>
+        <v>260</v>
       </c>
       <c r="H15" s="37" t="s">
-        <v>33</v>
+        <v>259</v>
       </c>
       <c r="I15" s="42" t="s">
-        <v>392</v>
+        <v>117</v>
       </c>
       <c r="J15" s="38" t="s">
-        <v>229</v>
+        <v>455</v>
       </c>
       <c r="K15" s="38"/>
       <c r="L15" s="38"/>
       <c r="M15" s="38" t="s">
-        <v>146</v>
+        <v>372</v>
       </c>
       <c r="N15" s="38" t="s">
-        <v>229</v>
+        <v>455</v>
       </c>
       <c r="O15" s="38" t="s">
-        <v>393</v>
+        <v>118</v>
       </c>
       <c r="P15" s="38" t="s">
-        <v>229</v>
+        <v>455</v>
       </c>
       <c r="Q15" s="38" t="s">
-        <v>146</v>
+        <v>372</v>
       </c>
       <c r="R15" s="38" t="s">
-        <v>229</v>
+        <v>455</v>
       </c>
       <c r="S15" s="38" t="s">
-        <v>460</v>
+        <v>50</v>
       </c>
       <c r="T15" s="38"/>
       <c r="U15" s="39"/>
       <c r="V15" s="40"/>
       <c r="W15" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4518,16 +4515,16 @@
         <v>33</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>204</v>
+        <v>430</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>216</v>
+        <v>442</v>
       </c>
       <c r="E16" s="43" t="s">
-        <v>208</v>
+        <v>434</v>
       </c>
       <c r="F16" s="37"/>
       <c r="G16" s="37"/>
@@ -4547,7 +4544,7 @@
       <c r="U16" s="39"/>
       <c r="V16" s="40"/>
       <c r="W16" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4555,16 +4552,16 @@
         <v>34</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>205</v>
+        <v>431</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>217</v>
+        <v>443</v>
       </c>
       <c r="E17" s="43" t="s">
-        <v>208</v>
+        <v>434</v>
       </c>
       <c r="F17" s="37"/>
       <c r="G17" s="37"/>
@@ -4584,7 +4581,7 @@
       <c r="U17" s="39"/>
       <c r="V17" s="40"/>
       <c r="W17" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4592,16 +4589,16 @@
         <v>35</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C18" s="41" t="s">
-        <v>206</v>
+        <v>432</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>218</v>
+        <v>444</v>
       </c>
       <c r="E18" s="43" t="s">
-        <v>208</v>
+        <v>434</v>
       </c>
       <c r="F18" s="37"/>
       <c r="G18" s="37"/>
@@ -4621,7 +4618,7 @@
       <c r="U18" s="39"/>
       <c r="V18" s="40"/>
       <c r="W18" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4629,16 +4626,16 @@
         <v>36</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>200</v>
+        <v>426</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>219</v>
+        <v>445</v>
       </c>
       <c r="E19" s="43" t="s">
-        <v>220</v>
+        <v>446</v>
       </c>
       <c r="F19" s="37"/>
       <c r="G19" s="37"/>
@@ -4658,7 +4655,7 @@
       <c r="U19" s="39"/>
       <c r="V19" s="40"/>
       <c r="W19" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4666,16 +4663,16 @@
         <v>37</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>202</v>
+        <v>428</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>221</v>
+        <v>447</v>
       </c>
       <c r="E20" s="43" t="s">
-        <v>220</v>
+        <v>446</v>
       </c>
       <c r="F20" s="37"/>
       <c r="G20" s="37"/>
@@ -4695,7 +4692,7 @@
       <c r="U20" s="39"/>
       <c r="V20" s="40"/>
       <c r="W20" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4703,16 +4700,16 @@
         <v>38</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C21" s="41" t="s">
-        <v>211</v>
+        <v>437</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>222</v>
+        <v>448</v>
       </c>
       <c r="E21" s="43" t="s">
-        <v>220</v>
+        <v>446</v>
       </c>
       <c r="F21" s="37"/>
       <c r="G21" s="37"/>
@@ -4732,7 +4729,7 @@
       <c r="U21" s="39"/>
       <c r="V21" s="40"/>
       <c r="W21" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
@@ -4740,60 +4737,60 @@
         <v>39</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C22" s="41" t="s">
-        <v>203</v>
+        <v>429</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>223</v>
+        <v>449</v>
       </c>
       <c r="E22" s="43" t="s">
-        <v>220</v>
+        <v>446</v>
       </c>
       <c r="F22" s="45">
         <v>45786</v>
       </c>
       <c r="G22" s="37" t="s">
-        <v>38</v>
+        <v>264</v>
       </c>
       <c r="H22" s="37" t="s">
-        <v>37</v>
+        <v>263</v>
       </c>
       <c r="I22" s="42" t="s">
-        <v>392</v>
+        <v>117</v>
       </c>
       <c r="J22" s="38" t="s">
-        <v>229</v>
+        <v>455</v>
       </c>
       <c r="K22" s="38"/>
       <c r="L22" s="38"/>
       <c r="M22" s="38" t="s">
-        <v>146</v>
+        <v>372</v>
       </c>
       <c r="N22" s="38" t="s">
-        <v>229</v>
+        <v>455</v>
       </c>
       <c r="O22" s="38" t="s">
-        <v>393</v>
+        <v>118</v>
       </c>
       <c r="P22" s="38" t="s">
-        <v>229</v>
+        <v>455</v>
       </c>
       <c r="Q22" s="38" t="s">
-        <v>146</v>
+        <v>372</v>
       </c>
       <c r="R22" s="38" t="s">
-        <v>229</v>
+        <v>455</v>
       </c>
       <c r="S22" s="38" t="s">
-        <v>460</v>
+        <v>50</v>
       </c>
       <c r="T22" s="38"/>
       <c r="U22" s="39"/>
       <c r="V22" s="40"/>
       <c r="W22" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
@@ -4801,60 +4798,60 @@
         <v>40</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C23" s="41" t="s">
-        <v>214</v>
+        <v>440</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>224</v>
+        <v>450</v>
       </c>
       <c r="E23" s="43" t="s">
-        <v>220</v>
+        <v>446</v>
       </c>
       <c r="F23" s="45">
         <v>45786</v>
       </c>
       <c r="G23" s="37" t="s">
-        <v>35</v>
+        <v>261</v>
       </c>
       <c r="H23" s="37" t="s">
-        <v>36</v>
+        <v>262</v>
       </c>
       <c r="I23" s="42" t="s">
-        <v>392</v>
+        <v>117</v>
       </c>
       <c r="J23" s="38" t="s">
-        <v>229</v>
+        <v>455</v>
       </c>
       <c r="K23" s="38"/>
       <c r="L23" s="38"/>
       <c r="M23" s="38" t="s">
-        <v>146</v>
+        <v>372</v>
       </c>
       <c r="N23" s="38" t="s">
-        <v>229</v>
+        <v>455</v>
       </c>
       <c r="O23" s="38" t="s">
-        <v>393</v>
+        <v>118</v>
       </c>
       <c r="P23" s="38" t="s">
-        <v>229</v>
+        <v>455</v>
       </c>
       <c r="Q23" s="38" t="s">
-        <v>146</v>
+        <v>372</v>
       </c>
       <c r="R23" s="38" t="s">
-        <v>229</v>
+        <v>455</v>
       </c>
       <c r="S23" s="38" t="s">
-        <v>460</v>
+        <v>50</v>
       </c>
       <c r="T23" s="38"/>
       <c r="U23" s="39"/>
       <c r="V23" s="40"/>
       <c r="W23" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4862,16 +4859,16 @@
         <v>41</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C24" s="41" t="s">
-        <v>204</v>
+        <v>430</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>225</v>
+        <v>451</v>
       </c>
       <c r="E24" s="43" t="s">
-        <v>220</v>
+        <v>446</v>
       </c>
       <c r="F24" s="37"/>
       <c r="G24" s="37"/>
@@ -4891,7 +4888,7 @@
       <c r="U24" s="39"/>
       <c r="V24" s="40"/>
       <c r="W24" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4899,16 +4896,16 @@
         <v>42</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>205</v>
+        <v>431</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>226</v>
+        <v>452</v>
       </c>
       <c r="E25" s="43" t="s">
-        <v>220</v>
+        <v>446</v>
       </c>
       <c r="F25" s="37"/>
       <c r="G25" s="37"/>
@@ -4928,7 +4925,7 @@
       <c r="U25" s="39"/>
       <c r="V25" s="40"/>
       <c r="W25" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4936,16 +4933,16 @@
         <v>43</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C26" s="41" t="s">
-        <v>206</v>
+        <v>432</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>227</v>
+        <v>453</v>
       </c>
       <c r="E26" s="43" t="s">
-        <v>220</v>
+        <v>446</v>
       </c>
       <c r="F26" s="37"/>
       <c r="G26" s="37"/>
@@ -4965,7 +4962,7 @@
       <c r="U26" s="39"/>
       <c r="V26" s="40"/>
       <c r="W26" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -4973,16 +4970,16 @@
         <v>44</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C27" s="41" t="s">
-        <v>200</v>
+        <v>426</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>228</v>
+        <v>454</v>
       </c>
       <c r="E27" s="43" t="s">
-        <v>158</v>
+        <v>384</v>
       </c>
       <c r="F27" s="37"/>
       <c r="G27" s="37"/>
@@ -5000,11 +4997,11 @@
       <c r="S27" s="38"/>
       <c r="T27" s="38"/>
       <c r="U27" s="39" t="s">
-        <v>229</v>
+        <v>455</v>
       </c>
       <c r="V27" s="40"/>
       <c r="W27" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5012,16 +5009,16 @@
         <v>45</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C28" s="41" t="s">
-        <v>202</v>
+        <v>428</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>230</v>
+        <v>456</v>
       </c>
       <c r="E28" s="43" t="s">
-        <v>158</v>
+        <v>384</v>
       </c>
       <c r="F28" s="37"/>
       <c r="G28" s="37"/>
@@ -5039,11 +5036,11 @@
       <c r="S28" s="38"/>
       <c r="T28" s="38"/>
       <c r="U28" s="39" t="s">
-        <v>229</v>
+        <v>455</v>
       </c>
       <c r="V28" s="40"/>
       <c r="W28" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5051,16 +5048,16 @@
         <v>46</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C29" s="41" t="s">
-        <v>211</v>
+        <v>437</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>231</v>
+        <v>457</v>
       </c>
       <c r="E29" s="43" t="s">
-        <v>158</v>
+        <v>384</v>
       </c>
       <c r="F29" s="37"/>
       <c r="G29" s="37"/>
@@ -5078,11 +5075,11 @@
       <c r="S29" s="38"/>
       <c r="T29" s="38"/>
       <c r="U29" s="39" t="s">
-        <v>229</v>
+        <v>455</v>
       </c>
       <c r="V29" s="40"/>
       <c r="W29" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="48" customHeight="1" thickBot="1">
@@ -5090,52 +5087,52 @@
         <v>47</v>
       </c>
       <c r="B30" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C30" s="41" t="s">
-        <v>203</v>
+        <v>429</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>232</v>
+        <v>458</v>
       </c>
       <c r="E30" s="43" t="s">
-        <v>158</v>
+        <v>384</v>
       </c>
       <c r="F30" s="37"/>
       <c r="G30" s="37"/>
       <c r="H30" s="37"/>
       <c r="I30" s="42"/>
       <c r="J30" s="38" t="s">
-        <v>229</v>
+        <v>455</v>
       </c>
       <c r="K30" s="38"/>
       <c r="L30" s="38"/>
       <c r="M30" s="38" t="s">
-        <v>146</v>
+        <v>372</v>
       </c>
       <c r="N30" s="38" t="s">
-        <v>146</v>
+        <v>372</v>
       </c>
       <c r="O30" s="38"/>
       <c r="P30" s="38" t="s">
-        <v>146</v>
+        <v>372</v>
       </c>
       <c r="Q30" s="38" t="s">
-        <v>229</v>
+        <v>455</v>
       </c>
       <c r="R30" s="38" t="s">
-        <v>146</v>
+        <v>372</v>
       </c>
       <c r="S30" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
       <c r="T30" s="38"/>
       <c r="U30" s="39" t="s">
-        <v>229</v>
+        <v>455</v>
       </c>
       <c r="V30" s="40"/>
       <c r="W30" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="54.75" customHeight="1" thickBot="1">
@@ -5143,52 +5140,52 @@
         <v>48</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C31" s="41" t="s">
-        <v>214</v>
+        <v>440</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>233</v>
+        <v>459</v>
       </c>
       <c r="E31" s="43" t="s">
-        <v>158</v>
+        <v>384</v>
       </c>
       <c r="F31" s="37"/>
       <c r="G31" s="37"/>
       <c r="H31" s="37"/>
       <c r="I31" s="42"/>
       <c r="J31" s="38" t="s">
-        <v>229</v>
+        <v>455</v>
       </c>
       <c r="K31" s="38"/>
       <c r="L31" s="38"/>
       <c r="M31" s="38" t="s">
-        <v>146</v>
+        <v>372</v>
       </c>
       <c r="N31" s="38" t="s">
-        <v>146</v>
+        <v>372</v>
       </c>
       <c r="O31" s="38"/>
       <c r="P31" s="38" t="s">
-        <v>146</v>
+        <v>372</v>
       </c>
       <c r="Q31" s="38" t="s">
-        <v>229</v>
+        <v>455</v>
       </c>
       <c r="R31" s="38" t="s">
-        <v>146</v>
+        <v>372</v>
       </c>
       <c r="S31" s="38" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
       <c r="T31" s="38"/>
       <c r="U31" s="39" t="s">
-        <v>229</v>
+        <v>455</v>
       </c>
       <c r="V31" s="40"/>
       <c r="W31" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5196,16 +5193,16 @@
         <v>49</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C32" s="41" t="s">
-        <v>204</v>
+        <v>430</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>234</v>
+        <v>460</v>
       </c>
       <c r="E32" s="43" t="s">
-        <v>158</v>
+        <v>384</v>
       </c>
       <c r="F32" s="37"/>
       <c r="G32" s="37"/>
@@ -5223,11 +5220,11 @@
       <c r="S32" s="38"/>
       <c r="T32" s="38"/>
       <c r="U32" s="39" t="s">
-        <v>229</v>
+        <v>455</v>
       </c>
       <c r="V32" s="40"/>
       <c r="W32" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5235,16 +5232,16 @@
         <v>50</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C33" s="41" t="s">
-        <v>205</v>
+        <v>431</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>235</v>
+        <v>461</v>
       </c>
       <c r="E33" s="43" t="s">
-        <v>158</v>
+        <v>384</v>
       </c>
       <c r="F33" s="37"/>
       <c r="G33" s="37"/>
@@ -5262,11 +5259,11 @@
       <c r="S33" s="38"/>
       <c r="T33" s="38"/>
       <c r="U33" s="39" t="s">
-        <v>229</v>
+        <v>455</v>
       </c>
       <c r="V33" s="40"/>
       <c r="W33" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5274,16 +5271,16 @@
         <v>51</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C34" s="41" t="s">
-        <v>206</v>
+        <v>432</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>236</v>
+        <v>462</v>
       </c>
       <c r="E34" s="43" t="s">
-        <v>158</v>
+        <v>384</v>
       </c>
       <c r="F34" s="37"/>
       <c r="G34" s="37"/>
@@ -5301,11 +5298,11 @@
       <c r="S34" s="38"/>
       <c r="T34" s="38"/>
       <c r="U34" s="39" t="s">
-        <v>229</v>
+        <v>455</v>
       </c>
       <c r="V34" s="40"/>
       <c r="W34" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5313,16 +5310,16 @@
         <v>53</v>
       </c>
       <c r="B35" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C35" s="41" t="s">
-        <v>200</v>
+        <v>426</v>
       </c>
       <c r="D35" s="35" t="s">
-        <v>321</v>
+        <v>182</v>
       </c>
       <c r="E35" s="43" t="s">
-        <v>322</v>
+        <v>183</v>
       </c>
       <c r="F35" s="37"/>
       <c r="G35" s="37"/>
@@ -5342,7 +5339,7 @@
       <c r="U35" s="39"/>
       <c r="V35" s="40"/>
       <c r="W35" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5350,16 +5347,16 @@
         <v>55</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C36" s="41" t="s">
-        <v>200</v>
+        <v>426</v>
       </c>
       <c r="D36" s="35" t="s">
-        <v>237</v>
+        <v>463</v>
       </c>
       <c r="E36" s="43" t="s">
-        <v>238</v>
+        <v>464</v>
       </c>
       <c r="F36" s="37"/>
       <c r="G36" s="37"/>
@@ -5379,7 +5376,7 @@
       <c r="U36" s="39"/>
       <c r="V36" s="40"/>
       <c r="W36" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5387,16 +5384,16 @@
         <v>56</v>
       </c>
       <c r="B37" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C37" s="41" t="s">
-        <v>200</v>
+        <v>426</v>
       </c>
       <c r="D37" s="35" t="s">
-        <v>239</v>
+        <v>465</v>
       </c>
       <c r="E37" s="43" t="s">
-        <v>240</v>
+        <v>466</v>
       </c>
       <c r="F37" s="37"/>
       <c r="G37" s="37"/>
@@ -5416,7 +5413,7 @@
       <c r="U37" s="39"/>
       <c r="V37" s="40"/>
       <c r="W37" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5424,16 +5421,16 @@
         <v>57</v>
       </c>
       <c r="B38" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C38" s="41" t="s">
-        <v>200</v>
+        <v>426</v>
       </c>
       <c r="D38" s="35" t="s">
-        <v>241</v>
+        <v>467</v>
       </c>
       <c r="E38" s="43" t="s">
-        <v>242</v>
+        <v>468</v>
       </c>
       <c r="F38" s="37"/>
       <c r="G38" s="37"/>
@@ -5453,7 +5450,7 @@
       <c r="U38" s="39"/>
       <c r="V38" s="40"/>
       <c r="W38" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="39" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5461,16 +5458,16 @@
         <v>58</v>
       </c>
       <c r="B39" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C39" s="41" t="s">
-        <v>200</v>
+        <v>426</v>
       </c>
       <c r="D39" s="35" t="s">
-        <v>243</v>
+        <v>469</v>
       </c>
       <c r="E39" s="43" t="s">
-        <v>244</v>
+        <v>470</v>
       </c>
       <c r="F39" s="37"/>
       <c r="G39" s="37"/>
@@ -5490,7 +5487,7 @@
       <c r="U39" s="39"/>
       <c r="V39" s="40"/>
       <c r="W39" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="40" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5498,16 +5495,16 @@
         <v>59</v>
       </c>
       <c r="B40" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C40" s="41" t="s">
-        <v>200</v>
+        <v>426</v>
       </c>
       <c r="D40" s="35" t="s">
-        <v>245</v>
+        <v>471</v>
       </c>
       <c r="E40" s="43" t="s">
-        <v>246</v>
+        <v>472</v>
       </c>
       <c r="F40" s="37"/>
       <c r="G40" s="37"/>
@@ -5527,7 +5524,7 @@
       <c r="U40" s="39"/>
       <c r="V40" s="40"/>
       <c r="W40" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="41" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5535,16 +5532,16 @@
         <v>60</v>
       </c>
       <c r="B41" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C41" s="41" t="s">
-        <v>200</v>
+        <v>426</v>
       </c>
       <c r="D41" s="35" t="s">
-        <v>247</v>
+        <v>473</v>
       </c>
       <c r="E41" s="43" t="s">
-        <v>248</v>
+        <v>201</v>
       </c>
       <c r="F41" s="37"/>
       <c r="G41" s="37"/>
@@ -5564,7 +5561,7 @@
       <c r="U41" s="39"/>
       <c r="V41" s="40"/>
       <c r="W41" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5572,16 +5569,16 @@
         <v>61</v>
       </c>
       <c r="B42" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C42" s="41" t="s">
-        <v>200</v>
+        <v>426</v>
       </c>
       <c r="D42" s="35" t="s">
-        <v>249</v>
+        <v>202</v>
       </c>
       <c r="E42" s="43" t="s">
-        <v>250</v>
+        <v>203</v>
       </c>
       <c r="F42" s="37"/>
       <c r="G42" s="37"/>
@@ -5601,7 +5598,7 @@
       <c r="U42" s="39"/>
       <c r="V42" s="40"/>
       <c r="W42" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="43" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5609,16 +5606,16 @@
         <v>62</v>
       </c>
       <c r="B43" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C43" s="41" t="s">
-        <v>200</v>
+        <v>426</v>
       </c>
       <c r="D43" s="35" t="s">
-        <v>251</v>
+        <v>204</v>
       </c>
       <c r="E43" s="43" t="s">
-        <v>252</v>
+        <v>205</v>
       </c>
       <c r="F43" s="37"/>
       <c r="G43" s="37"/>
@@ -5638,7 +5635,7 @@
       <c r="U43" s="39"/>
       <c r="V43" s="40"/>
       <c r="W43" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="44" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5646,16 +5643,16 @@
         <v>64</v>
       </c>
       <c r="B44" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C44" s="41" t="s">
-        <v>202</v>
+        <v>428</v>
       </c>
       <c r="D44" s="35" t="s">
-        <v>253</v>
+        <v>206</v>
       </c>
       <c r="E44" s="43" t="s">
-        <v>315</v>
+        <v>176</v>
       </c>
       <c r="F44" s="37"/>
       <c r="G44" s="37"/>
@@ -5675,7 +5672,7 @@
       <c r="U44" s="39"/>
       <c r="V44" s="40"/>
       <c r="W44" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="45" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5683,16 +5680,16 @@
         <v>66</v>
       </c>
       <c r="B45" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C45" s="41" t="s">
-        <v>202</v>
+        <v>428</v>
       </c>
       <c r="D45" s="35" t="s">
-        <v>254</v>
+        <v>207</v>
       </c>
       <c r="E45" s="43" t="s">
-        <v>316</v>
+        <v>177</v>
       </c>
       <c r="F45" s="37"/>
       <c r="G45" s="37"/>
@@ -5712,7 +5709,7 @@
       <c r="U45" s="39"/>
       <c r="V45" s="40"/>
       <c r="W45" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5720,16 +5717,16 @@
         <v>67</v>
       </c>
       <c r="B46" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C46" s="41" t="s">
-        <v>202</v>
+        <v>428</v>
       </c>
       <c r="D46" s="35" t="s">
-        <v>255</v>
+        <v>208</v>
       </c>
       <c r="E46" s="43" t="s">
-        <v>317</v>
+        <v>178</v>
       </c>
       <c r="F46" s="37"/>
       <c r="G46" s="37"/>
@@ -5749,7 +5746,7 @@
       <c r="U46" s="39"/>
       <c r="V46" s="40"/>
       <c r="W46" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5757,16 +5754,16 @@
         <v>68</v>
       </c>
       <c r="B47" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C47" s="41" t="s">
-        <v>202</v>
+        <v>428</v>
       </c>
       <c r="D47" s="35" t="s">
-        <v>256</v>
+        <v>209</v>
       </c>
       <c r="E47" s="43" t="s">
-        <v>438</v>
+        <v>28</v>
       </c>
       <c r="F47" s="37"/>
       <c r="G47" s="37"/>
@@ -5786,7 +5783,7 @@
       <c r="U47" s="39"/>
       <c r="V47" s="40"/>
       <c r="W47" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="48" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5794,16 +5791,16 @@
         <v>69</v>
       </c>
       <c r="B48" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C48" s="41" t="s">
-        <v>202</v>
+        <v>428</v>
       </c>
       <c r="D48" s="35" t="s">
-        <v>257</v>
+        <v>210</v>
       </c>
       <c r="E48" s="43" t="s">
-        <v>439</v>
+        <v>29</v>
       </c>
       <c r="F48" s="37"/>
       <c r="G48" s="37"/>
@@ -5823,7 +5820,7 @@
       <c r="U48" s="39"/>
       <c r="V48" s="40"/>
       <c r="W48" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5831,16 +5828,16 @@
         <v>70</v>
       </c>
       <c r="B49" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C49" s="41" t="s">
-        <v>202</v>
+        <v>428</v>
       </c>
       <c r="D49" s="35" t="s">
-        <v>258</v>
+        <v>211</v>
       </c>
       <c r="E49" s="43" t="s">
-        <v>440</v>
+        <v>30</v>
       </c>
       <c r="F49" s="37"/>
       <c r="G49" s="37"/>
@@ -5860,7 +5857,7 @@
       <c r="U49" s="39"/>
       <c r="V49" s="40"/>
       <c r="W49" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5868,16 +5865,16 @@
         <v>71</v>
       </c>
       <c r="B50" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C50" s="41" t="s">
-        <v>202</v>
+        <v>428</v>
       </c>
       <c r="D50" s="35" t="s">
-        <v>259</v>
+        <v>212</v>
       </c>
       <c r="E50" s="43" t="s">
-        <v>324</v>
+        <v>185</v>
       </c>
       <c r="F50" s="37"/>
       <c r="G50" s="37"/>
@@ -5897,7 +5894,7 @@
       <c r="U50" s="39"/>
       <c r="V50" s="40"/>
       <c r="W50" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="51" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5905,16 +5902,16 @@
         <v>72</v>
       </c>
       <c r="B51" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C51" s="41" t="s">
-        <v>202</v>
+        <v>428</v>
       </c>
       <c r="D51" s="35" t="s">
-        <v>260</v>
+        <v>213</v>
       </c>
       <c r="E51" s="43" t="s">
-        <v>325</v>
+        <v>186</v>
       </c>
       <c r="F51" s="37"/>
       <c r="G51" s="37"/>
@@ -5934,7 +5931,7 @@
       <c r="U51" s="39"/>
       <c r="V51" s="40"/>
       <c r="W51" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="52" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5942,16 +5939,16 @@
         <v>73</v>
       </c>
       <c r="B52" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C52" s="41" t="s">
-        <v>202</v>
+        <v>428</v>
       </c>
       <c r="D52" s="35" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="E52" s="43" t="s">
-        <v>326</v>
+        <v>187</v>
       </c>
       <c r="F52" s="37"/>
       <c r="G52" s="37"/>
@@ -5971,7 +5968,7 @@
       <c r="U52" s="39"/>
       <c r="V52" s="40"/>
       <c r="W52" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -5979,16 +5976,16 @@
         <v>74</v>
       </c>
       <c r="B53" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C53" s="41" t="s">
-        <v>202</v>
+        <v>428</v>
       </c>
       <c r="D53" s="35" t="s">
-        <v>262</v>
+        <v>215</v>
       </c>
       <c r="E53" s="43" t="s">
-        <v>327</v>
+        <v>188</v>
       </c>
       <c r="F53" s="37"/>
       <c r="G53" s="37"/>
@@ -6008,7 +6005,7 @@
       <c r="U53" s="39"/>
       <c r="V53" s="40"/>
       <c r="W53" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="54" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
@@ -6016,26 +6013,26 @@
         <v>76</v>
       </c>
       <c r="B54" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C54" s="41" t="s">
-        <v>203</v>
+        <v>429</v>
       </c>
       <c r="D54" s="35" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="E54" s="43" t="s">
-        <v>328</v>
+        <v>189</v>
       </c>
       <c r="F54" s="37"/>
       <c r="G54" s="37"/>
       <c r="H54" s="37"/>
       <c r="I54" s="42"/>
       <c r="J54" s="38" t="s">
-        <v>146</v>
+        <v>372</v>
       </c>
       <c r="K54" s="38" t="s">
-        <v>89</v>
+        <v>315</v>
       </c>
       <c r="L54" s="38"/>
       <c r="M54" s="38"/>
@@ -6049,7 +6046,7 @@
       <c r="U54" s="39"/>
       <c r="V54" s="40"/>
       <c r="W54" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="55" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
@@ -6057,26 +6054,26 @@
         <v>78</v>
       </c>
       <c r="B55" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C55" s="41" t="s">
-        <v>203</v>
+        <v>429</v>
       </c>
       <c r="D55" s="35" t="s">
-        <v>264</v>
+        <v>217</v>
       </c>
       <c r="E55" s="43" t="s">
-        <v>265</v>
+        <v>218</v>
       </c>
       <c r="F55" s="37"/>
       <c r="G55" s="37"/>
       <c r="H55" s="37"/>
       <c r="I55" s="42"/>
       <c r="J55" s="38" t="s">
-        <v>146</v>
+        <v>372</v>
       </c>
       <c r="K55" s="38" t="s">
-        <v>394</v>
+        <v>119</v>
       </c>
       <c r="L55" s="38"/>
       <c r="M55" s="38"/>
@@ -6090,7 +6087,7 @@
       <c r="U55" s="39"/>
       <c r="V55" s="40"/>
       <c r="W55" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="56" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
@@ -6098,26 +6095,26 @@
         <v>79</v>
       </c>
       <c r="B56" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C56" s="41" t="s">
-        <v>203</v>
+        <v>429</v>
       </c>
       <c r="D56" s="35" t="s">
-        <v>266</v>
+        <v>219</v>
       </c>
       <c r="E56" s="43" t="s">
-        <v>329</v>
+        <v>190</v>
       </c>
       <c r="F56" s="37"/>
       <c r="G56" s="37"/>
       <c r="H56" s="37"/>
       <c r="I56" s="42"/>
       <c r="J56" s="38" t="s">
-        <v>146</v>
+        <v>372</v>
       </c>
       <c r="K56" s="38" t="s">
-        <v>394</v>
+        <v>119</v>
       </c>
       <c r="L56" s="38"/>
       <c r="M56" s="38"/>
@@ -6131,7 +6128,7 @@
       <c r="U56" s="39"/>
       <c r="V56" s="40"/>
       <c r="W56" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="57" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
@@ -6139,26 +6136,26 @@
         <v>80</v>
       </c>
       <c r="B57" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C57" s="41" t="s">
-        <v>203</v>
+        <v>429</v>
       </c>
       <c r="D57" s="35" t="s">
-        <v>267</v>
+        <v>220</v>
       </c>
       <c r="E57" s="43" t="s">
-        <v>461</v>
+        <v>51</v>
       </c>
       <c r="F57" s="37"/>
       <c r="G57" s="37"/>
       <c r="H57" s="37"/>
       <c r="I57" s="42"/>
       <c r="J57" s="38" t="s">
-        <v>146</v>
+        <v>372</v>
       </c>
       <c r="K57" s="38" t="s">
-        <v>423</v>
+        <v>13</v>
       </c>
       <c r="L57" s="38"/>
       <c r="M57" s="38"/>
@@ -6172,7 +6169,7 @@
       <c r="U57" s="39"/>
       <c r="V57" s="40"/>
       <c r="W57" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="58" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
@@ -6180,26 +6177,26 @@
         <v>81</v>
       </c>
       <c r="B58" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C58" s="41" t="s">
-        <v>203</v>
+        <v>429</v>
       </c>
       <c r="D58" s="35" t="s">
-        <v>268</v>
+        <v>221</v>
       </c>
       <c r="E58" s="43" t="s">
-        <v>462</v>
+        <v>52</v>
       </c>
       <c r="F58" s="37"/>
       <c r="G58" s="37"/>
       <c r="H58" s="37"/>
       <c r="I58" s="42"/>
       <c r="J58" s="38" t="s">
-        <v>146</v>
+        <v>372</v>
       </c>
       <c r="K58" s="38" t="s">
-        <v>89</v>
+        <v>315</v>
       </c>
       <c r="L58" s="38"/>
       <c r="M58" s="38"/>
@@ -6213,7 +6210,7 @@
       <c r="U58" s="39"/>
       <c r="V58" s="40"/>
       <c r="W58" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="59" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
@@ -6221,26 +6218,26 @@
         <v>82</v>
       </c>
       <c r="B59" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C59" s="41" t="s">
-        <v>203</v>
+        <v>429</v>
       </c>
       <c r="D59" s="35" t="s">
-        <v>269</v>
+        <v>222</v>
       </c>
       <c r="E59" s="43" t="s">
-        <v>463</v>
+        <v>53</v>
       </c>
       <c r="F59" s="37"/>
       <c r="G59" s="37"/>
       <c r="H59" s="37"/>
       <c r="I59" s="42"/>
       <c r="J59" s="38" t="s">
-        <v>146</v>
+        <v>372</v>
       </c>
       <c r="K59" s="38" t="s">
-        <v>362</v>
+        <v>88</v>
       </c>
       <c r="L59" s="38"/>
       <c r="M59" s="38"/>
@@ -6254,7 +6251,7 @@
       <c r="U59" s="39"/>
       <c r="V59" s="40"/>
       <c r="W59" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="60" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
@@ -6262,26 +6259,26 @@
         <v>83</v>
       </c>
       <c r="B60" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C60" s="41" t="s">
-        <v>203</v>
+        <v>429</v>
       </c>
       <c r="D60" s="35" t="s">
-        <v>270</v>
+        <v>223</v>
       </c>
       <c r="E60" s="43" t="s">
-        <v>271</v>
+        <v>224</v>
       </c>
       <c r="F60" s="37"/>
       <c r="G60" s="37"/>
       <c r="H60" s="37"/>
       <c r="I60" s="42"/>
       <c r="J60" s="38" t="s">
-        <v>146</v>
+        <v>372</v>
       </c>
       <c r="K60" s="38" t="s">
-        <v>362</v>
+        <v>88</v>
       </c>
       <c r="L60" s="38"/>
       <c r="M60" s="38"/>
@@ -6295,7 +6292,7 @@
       <c r="U60" s="39"/>
       <c r="V60" s="40"/>
       <c r="W60" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="61" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
@@ -6303,26 +6300,26 @@
         <v>84</v>
       </c>
       <c r="B61" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C61" s="41" t="s">
-        <v>203</v>
+        <v>429</v>
       </c>
       <c r="D61" s="35" t="s">
-        <v>272</v>
+        <v>225</v>
       </c>
       <c r="E61" s="43" t="s">
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="F61" s="37"/>
       <c r="G61" s="37"/>
       <c r="H61" s="37"/>
       <c r="I61" s="42"/>
       <c r="J61" s="38" t="s">
-        <v>146</v>
+        <v>372</v>
       </c>
       <c r="K61" s="38" t="s">
-        <v>394</v>
+        <v>119</v>
       </c>
       <c r="L61" s="38"/>
       <c r="M61" s="38"/>
@@ -6336,7 +6333,7 @@
       <c r="U61" s="39"/>
       <c r="V61" s="40"/>
       <c r="W61" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="62" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
@@ -6344,26 +6341,26 @@
         <v>85</v>
       </c>
       <c r="B62" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C62" s="41" t="s">
-        <v>203</v>
+        <v>429</v>
       </c>
       <c r="D62" s="35" t="s">
-        <v>1</v>
+        <v>227</v>
       </c>
       <c r="E62" s="43" t="s">
-        <v>333</v>
+        <v>194</v>
       </c>
       <c r="F62" s="37"/>
       <c r="G62" s="37"/>
       <c r="H62" s="37"/>
       <c r="I62" s="42"/>
       <c r="J62" s="38" t="s">
-        <v>146</v>
+        <v>372</v>
       </c>
       <c r="K62" s="38" t="s">
-        <v>394</v>
+        <v>119</v>
       </c>
       <c r="L62" s="38"/>
       <c r="M62" s="38"/>
@@ -6377,7 +6374,7 @@
       <c r="U62" s="39"/>
       <c r="V62" s="40"/>
       <c r="W62" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
@@ -6385,26 +6382,26 @@
         <v>86</v>
       </c>
       <c r="B63" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C63" s="41" t="s">
-        <v>203</v>
+        <v>429</v>
       </c>
       <c r="D63" s="35" t="s">
-        <v>2</v>
+        <v>228</v>
       </c>
       <c r="E63" s="43" t="s">
-        <v>334</v>
+        <v>195</v>
       </c>
       <c r="F63" s="37"/>
       <c r="G63" s="37"/>
       <c r="H63" s="37"/>
       <c r="I63" s="42"/>
       <c r="J63" s="38" t="s">
-        <v>146</v>
+        <v>372</v>
       </c>
       <c r="K63" s="38" t="s">
-        <v>89</v>
+        <v>315</v>
       </c>
       <c r="L63" s="38"/>
       <c r="M63" s="38"/>
@@ -6418,7 +6415,7 @@
       <c r="U63" s="39"/>
       <c r="V63" s="40"/>
       <c r="W63" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="64" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
@@ -6426,26 +6423,26 @@
         <v>87</v>
       </c>
       <c r="B64" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C64" s="41" t="s">
-        <v>203</v>
+        <v>429</v>
       </c>
       <c r="D64" s="35" t="s">
-        <v>3</v>
+        <v>229</v>
       </c>
       <c r="E64" s="43" t="s">
-        <v>335</v>
+        <v>196</v>
       </c>
       <c r="F64" s="37"/>
       <c r="G64" s="37"/>
       <c r="H64" s="37"/>
       <c r="I64" s="42"/>
       <c r="J64" s="38" t="s">
-        <v>146</v>
+        <v>372</v>
       </c>
       <c r="K64" s="38" t="s">
-        <v>89</v>
+        <v>315</v>
       </c>
       <c r="L64" s="38"/>
       <c r="M64" s="38"/>
@@ -6459,7 +6456,7 @@
       <c r="U64" s="39"/>
       <c r="V64" s="40"/>
       <c r="W64" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="65" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
@@ -6467,26 +6464,26 @@
         <v>88</v>
       </c>
       <c r="B65" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C65" s="41" t="s">
-        <v>203</v>
+        <v>429</v>
       </c>
       <c r="D65" s="35" t="s">
-        <v>4</v>
+        <v>230</v>
       </c>
       <c r="E65" s="43" t="s">
-        <v>471</v>
+        <v>61</v>
       </c>
       <c r="F65" s="37"/>
       <c r="G65" s="37"/>
       <c r="H65" s="37"/>
       <c r="I65" s="42"/>
       <c r="J65" s="38" t="s">
-        <v>146</v>
+        <v>372</v>
       </c>
       <c r="K65" s="38" t="s">
-        <v>89</v>
+        <v>315</v>
       </c>
       <c r="L65" s="38"/>
       <c r="M65" s="38"/>
@@ -6500,7 +6497,7 @@
       <c r="U65" s="39"/>
       <c r="V65" s="40"/>
       <c r="W65" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="66" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
@@ -6508,26 +6505,26 @@
         <v>89</v>
       </c>
       <c r="B66" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C66" s="41" t="s">
-        <v>203</v>
+        <v>429</v>
       </c>
       <c r="D66" s="35" t="s">
-        <v>5</v>
+        <v>231</v>
       </c>
       <c r="E66" s="43" t="s">
-        <v>6</v>
+        <v>232</v>
       </c>
       <c r="F66" s="37"/>
       <c r="G66" s="37"/>
       <c r="H66" s="37"/>
       <c r="I66" s="42"/>
       <c r="J66" s="38" t="s">
-        <v>146</v>
+        <v>372</v>
       </c>
       <c r="K66" s="38" t="s">
-        <v>365</v>
+        <v>13</v>
       </c>
       <c r="L66" s="38"/>
       <c r="M66" s="38"/>
@@ -6541,7 +6538,7 @@
       <c r="U66" s="39"/>
       <c r="V66" s="40"/>
       <c r="W66" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="67" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
@@ -6549,26 +6546,26 @@
         <v>90</v>
       </c>
       <c r="B67" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C67" s="41" t="s">
-        <v>203</v>
+        <v>429</v>
       </c>
       <c r="D67" s="35" t="s">
-        <v>7</v>
+        <v>233</v>
       </c>
       <c r="E67" s="43" t="s">
-        <v>8</v>
+        <v>234</v>
       </c>
       <c r="F67" s="37"/>
       <c r="G67" s="37"/>
       <c r="H67" s="37"/>
       <c r="I67" s="42"/>
       <c r="J67" s="38" t="s">
-        <v>146</v>
+        <v>372</v>
       </c>
       <c r="K67" s="38" t="s">
-        <v>89</v>
+        <v>315</v>
       </c>
       <c r="L67" s="38"/>
       <c r="M67" s="38"/>
@@ -6582,7 +6579,7 @@
       <c r="U67" s="39"/>
       <c r="V67" s="40"/>
       <c r="W67" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="68" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
@@ -6590,26 +6587,26 @@
         <v>91</v>
       </c>
       <c r="B68" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C68" s="41" t="s">
-        <v>203</v>
+        <v>429</v>
       </c>
       <c r="D68" s="35" t="s">
-        <v>9</v>
+        <v>235</v>
       </c>
       <c r="E68" s="43" t="s">
-        <v>472</v>
+        <v>62</v>
       </c>
       <c r="F68" s="37"/>
       <c r="G68" s="37"/>
       <c r="H68" s="37"/>
       <c r="I68" s="42"/>
       <c r="J68" s="38" t="s">
-        <v>146</v>
+        <v>372</v>
       </c>
       <c r="K68" s="38" t="s">
-        <v>89</v>
+        <v>315</v>
       </c>
       <c r="L68" s="38"/>
       <c r="M68" s="38"/>
@@ -6623,7 +6620,7 @@
       <c r="U68" s="39"/>
       <c r="V68" s="40"/>
       <c r="W68" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="69" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
@@ -6631,26 +6628,26 @@
         <v>92</v>
       </c>
       <c r="B69" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C69" s="41" t="s">
-        <v>203</v>
+        <v>429</v>
       </c>
       <c r="D69" s="35" t="s">
-        <v>10</v>
+        <v>236</v>
       </c>
       <c r="E69" s="43" t="s">
-        <v>403</v>
+        <v>128</v>
       </c>
       <c r="F69" s="37"/>
       <c r="G69" s="37"/>
       <c r="H69" s="37"/>
       <c r="I69" s="42"/>
       <c r="J69" s="38" t="s">
-        <v>146</v>
+        <v>372</v>
       </c>
       <c r="K69" s="38" t="s">
-        <v>365</v>
+        <v>13</v>
       </c>
       <c r="L69" s="38"/>
       <c r="M69" s="38"/>
@@ -6664,7 +6661,7 @@
       <c r="U69" s="39"/>
       <c r="V69" s="40"/>
       <c r="W69" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="70" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
@@ -6672,26 +6669,26 @@
         <v>93</v>
       </c>
       <c r="B70" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C70" s="41" t="s">
-        <v>203</v>
+        <v>429</v>
       </c>
       <c r="D70" s="35" t="s">
-        <v>11</v>
+        <v>237</v>
       </c>
       <c r="E70" s="43" t="s">
-        <v>473</v>
+        <v>63</v>
       </c>
       <c r="F70" s="37"/>
       <c r="G70" s="37"/>
       <c r="H70" s="37"/>
       <c r="I70" s="42"/>
       <c r="J70" s="38" t="s">
-        <v>146</v>
+        <v>372</v>
       </c>
       <c r="K70" s="38" t="s">
-        <v>365</v>
+        <v>13</v>
       </c>
       <c r="L70" s="38"/>
       <c r="M70" s="38"/>
@@ -6705,7 +6702,7 @@
       <c r="U70" s="39"/>
       <c r="V70" s="40"/>
       <c r="W70" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="71" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6713,16 +6710,16 @@
         <v>95</v>
       </c>
       <c r="B71" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C71" s="41" t="s">
-        <v>204</v>
+        <v>430</v>
       </c>
       <c r="D71" s="35" t="s">
-        <v>12</v>
+        <v>238</v>
       </c>
       <c r="E71" s="43" t="s">
-        <v>474</v>
+        <v>64</v>
       </c>
       <c r="F71" s="37"/>
       <c r="G71" s="37"/>
@@ -6742,7 +6739,7 @@
       <c r="U71" s="39"/>
       <c r="V71" s="40"/>
       <c r="W71" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="72" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6750,16 +6747,16 @@
         <v>97</v>
       </c>
       <c r="B72" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C72" s="41" t="s">
-        <v>204</v>
+        <v>430</v>
       </c>
       <c r="D72" s="35" t="s">
-        <v>13</v>
+        <v>239</v>
       </c>
       <c r="E72" s="43" t="s">
-        <v>330</v>
+        <v>191</v>
       </c>
       <c r="F72" s="37"/>
       <c r="G72" s="37"/>
@@ -6779,7 +6776,7 @@
       <c r="U72" s="39"/>
       <c r="V72" s="40"/>
       <c r="W72" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="73" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6787,16 +6784,16 @@
         <v>98</v>
       </c>
       <c r="B73" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C73" s="41" t="s">
-        <v>204</v>
+        <v>430</v>
       </c>
       <c r="D73" s="35" t="s">
-        <v>14</v>
+        <v>240</v>
       </c>
       <c r="E73" s="43" t="s">
-        <v>331</v>
+        <v>192</v>
       </c>
       <c r="F73" s="37"/>
       <c r="G73" s="37"/>
@@ -6816,7 +6813,7 @@
       <c r="U73" s="39"/>
       <c r="V73" s="40"/>
       <c r="W73" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="74" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6824,16 +6821,16 @@
         <v>99</v>
       </c>
       <c r="B74" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C74" s="41" t="s">
-        <v>204</v>
+        <v>430</v>
       </c>
       <c r="D74" s="35" t="s">
-        <v>15</v>
+        <v>241</v>
       </c>
       <c r="E74" s="43" t="s">
-        <v>332</v>
+        <v>193</v>
       </c>
       <c r="F74" s="37"/>
       <c r="G74" s="37"/>
@@ -6853,7 +6850,7 @@
       <c r="U74" s="39"/>
       <c r="V74" s="40"/>
       <c r="W74" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="75" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6861,16 +6858,16 @@
         <v>100</v>
       </c>
       <c r="B75" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C75" s="41" t="s">
-        <v>204</v>
+        <v>430</v>
       </c>
       <c r="D75" s="35" t="s">
-        <v>16</v>
+        <v>242</v>
       </c>
       <c r="E75" s="43" t="s">
-        <v>17</v>
+        <v>243</v>
       </c>
       <c r="F75" s="37"/>
       <c r="G75" s="37"/>
@@ -6890,7 +6887,7 @@
       <c r="U75" s="39"/>
       <c r="V75" s="40"/>
       <c r="W75" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="76" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6898,16 +6895,16 @@
         <v>101</v>
       </c>
       <c r="B76" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C76" s="41" t="s">
-        <v>204</v>
+        <v>430</v>
       </c>
       <c r="D76" s="35" t="s">
-        <v>18</v>
+        <v>244</v>
       </c>
       <c r="E76" s="43" t="s">
-        <v>342</v>
+        <v>68</v>
       </c>
       <c r="F76" s="37"/>
       <c r="G76" s="37"/>
@@ -6927,7 +6924,7 @@
       <c r="U76" s="39"/>
       <c r="V76" s="40"/>
       <c r="W76" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="77" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6935,16 +6932,16 @@
         <v>102</v>
       </c>
       <c r="B77" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C77" s="41" t="s">
-        <v>204</v>
+        <v>430</v>
       </c>
       <c r="D77" s="35" t="s">
-        <v>19</v>
+        <v>245</v>
       </c>
       <c r="E77" s="43" t="s">
-        <v>343</v>
+        <v>69</v>
       </c>
       <c r="F77" s="37"/>
       <c r="G77" s="37"/>
@@ -6964,7 +6961,7 @@
       <c r="U77" s="39"/>
       <c r="V77" s="40"/>
       <c r="W77" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="78" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -6972,16 +6969,16 @@
         <v>103</v>
       </c>
       <c r="B78" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C78" s="41" t="s">
-        <v>204</v>
+        <v>430</v>
       </c>
       <c r="D78" s="35" t="s">
-        <v>20</v>
+        <v>246</v>
       </c>
       <c r="E78" s="43" t="s">
-        <v>344</v>
+        <v>70</v>
       </c>
       <c r="F78" s="37"/>
       <c r="G78" s="37"/>
@@ -7001,7 +6998,7 @@
       <c r="U78" s="39"/>
       <c r="V78" s="40"/>
       <c r="W78" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="79" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7009,16 +7006,16 @@
         <v>104</v>
       </c>
       <c r="B79" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C79" s="41" t="s">
-        <v>204</v>
+        <v>430</v>
       </c>
       <c r="D79" s="35" t="s">
-        <v>21</v>
+        <v>247</v>
       </c>
       <c r="E79" s="43" t="s">
-        <v>22</v>
+        <v>248</v>
       </c>
       <c r="F79" s="37"/>
       <c r="G79" s="37"/>
@@ -7038,7 +7035,7 @@
       <c r="U79" s="39"/>
       <c r="V79" s="40"/>
       <c r="W79" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="80" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7046,16 +7043,16 @@
         <v>105</v>
       </c>
       <c r="B80" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C80" s="41" t="s">
-        <v>204</v>
+        <v>430</v>
       </c>
       <c r="D80" s="35" t="s">
-        <v>23</v>
+        <v>249</v>
       </c>
       <c r="E80" s="43" t="s">
-        <v>336</v>
+        <v>197</v>
       </c>
       <c r="F80" s="37"/>
       <c r="G80" s="37"/>
@@ -7075,7 +7072,7 @@
       <c r="U80" s="39"/>
       <c r="V80" s="40"/>
       <c r="W80" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="81" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7083,16 +7080,16 @@
         <v>106</v>
       </c>
       <c r="B81" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C81" s="41" t="s">
-        <v>204</v>
+        <v>430</v>
       </c>
       <c r="D81" s="35" t="s">
-        <v>24</v>
+        <v>250</v>
       </c>
       <c r="E81" s="43" t="s">
-        <v>337</v>
+        <v>198</v>
       </c>
       <c r="F81" s="37"/>
       <c r="G81" s="37"/>
@@ -7112,7 +7109,7 @@
       <c r="U81" s="39"/>
       <c r="V81" s="40"/>
       <c r="W81" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="82" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7120,16 +7117,16 @@
         <v>108</v>
       </c>
       <c r="B82" s="35" t="s">
+        <v>425</v>
+      </c>
+      <c r="C82" s="41" t="s">
+        <v>431</v>
+      </c>
+      <c r="D82" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="E82" s="43" t="s">
         <v>199</v>
-      </c>
-      <c r="C82" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="D82" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="E82" s="43" t="s">
-        <v>338</v>
       </c>
       <c r="F82" s="37"/>
       <c r="G82" s="37"/>
@@ -7149,7 +7146,7 @@
       <c r="U82" s="39"/>
       <c r="V82" s="40"/>
       <c r="W82" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="83" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7157,16 +7154,16 @@
         <v>110</v>
       </c>
       <c r="B83" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C83" s="41" t="s">
-        <v>205</v>
+        <v>431</v>
       </c>
       <c r="D83" s="35" t="s">
-        <v>26</v>
+        <v>252</v>
       </c>
       <c r="E83" s="43" t="s">
-        <v>47</v>
+        <v>273</v>
       </c>
       <c r="F83" s="37"/>
       <c r="G83" s="37"/>
@@ -7186,7 +7183,7 @@
       <c r="U83" s="39"/>
       <c r="V83" s="40"/>
       <c r="W83" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="84" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7194,16 +7191,16 @@
         <v>111</v>
       </c>
       <c r="B84" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C84" s="41" t="s">
-        <v>205</v>
+        <v>431</v>
       </c>
       <c r="D84" s="35" t="s">
-        <v>48</v>
+        <v>274</v>
       </c>
       <c r="E84" s="43" t="s">
-        <v>339</v>
+        <v>65</v>
       </c>
       <c r="F84" s="37"/>
       <c r="G84" s="37"/>
@@ -7223,7 +7220,7 @@
       <c r="U84" s="39"/>
       <c r="V84" s="40"/>
       <c r="W84" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="85" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7231,16 +7228,16 @@
         <v>112</v>
       </c>
       <c r="B85" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C85" s="41" t="s">
-        <v>205</v>
+        <v>431</v>
       </c>
       <c r="D85" s="35" t="s">
-        <v>49</v>
+        <v>275</v>
       </c>
       <c r="E85" s="43" t="s">
-        <v>340</v>
+        <v>66</v>
       </c>
       <c r="F85" s="37"/>
       <c r="G85" s="37"/>
@@ -7260,7 +7257,7 @@
       <c r="U85" s="39"/>
       <c r="V85" s="40"/>
       <c r="W85" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="86" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7268,16 +7265,16 @@
         <v>113</v>
       </c>
       <c r="B86" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C86" s="41" t="s">
-        <v>205</v>
+        <v>431</v>
       </c>
       <c r="D86" s="35" t="s">
-        <v>50</v>
+        <v>276</v>
       </c>
       <c r="E86" s="43" t="s">
-        <v>341</v>
+        <v>67</v>
       </c>
       <c r="F86" s="37"/>
       <c r="G86" s="37"/>
@@ -7297,7 +7294,7 @@
       <c r="U86" s="39"/>
       <c r="V86" s="40"/>
       <c r="W86" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="87" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7305,16 +7302,16 @@
         <v>114</v>
       </c>
       <c r="B87" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C87" s="41" t="s">
-        <v>205</v>
+        <v>431</v>
       </c>
       <c r="D87" s="35" t="s">
-        <v>51</v>
+        <v>277</v>
       </c>
       <c r="E87" s="43" t="s">
-        <v>351</v>
+        <v>77</v>
       </c>
       <c r="F87" s="37"/>
       <c r="G87" s="37"/>
@@ -7334,7 +7331,7 @@
       <c r="U87" s="39"/>
       <c r="V87" s="40"/>
       <c r="W87" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="88" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7342,16 +7339,16 @@
         <v>115</v>
       </c>
       <c r="B88" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C88" s="41" t="s">
-        <v>205</v>
+        <v>431</v>
       </c>
       <c r="D88" s="35" t="s">
-        <v>52</v>
+        <v>278</v>
       </c>
       <c r="E88" s="43" t="s">
-        <v>352</v>
+        <v>78</v>
       </c>
       <c r="F88" s="37"/>
       <c r="G88" s="37"/>
@@ -7371,7 +7368,7 @@
       <c r="U88" s="39"/>
       <c r="V88" s="40"/>
       <c r="W88" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="89" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7379,16 +7376,16 @@
         <v>116</v>
       </c>
       <c r="B89" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C89" s="41" t="s">
-        <v>205</v>
+        <v>431</v>
       </c>
       <c r="D89" s="35" t="s">
-        <v>53</v>
+        <v>279</v>
       </c>
       <c r="E89" s="43" t="s">
-        <v>353</v>
+        <v>79</v>
       </c>
       <c r="F89" s="37"/>
       <c r="G89" s="37"/>
@@ -7408,7 +7405,7 @@
       <c r="U89" s="39"/>
       <c r="V89" s="40"/>
       <c r="W89" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="90" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7416,16 +7413,16 @@
         <v>117</v>
       </c>
       <c r="B90" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C90" s="41" t="s">
-        <v>205</v>
+        <v>431</v>
       </c>
       <c r="D90" s="35" t="s">
-        <v>54</v>
+        <v>280</v>
       </c>
       <c r="E90" s="43" t="s">
-        <v>345</v>
+        <v>71</v>
       </c>
       <c r="F90" s="37"/>
       <c r="G90" s="37"/>
@@ -7445,7 +7442,7 @@
       <c r="U90" s="39"/>
       <c r="V90" s="40"/>
       <c r="W90" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="91" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7453,16 +7450,16 @@
         <v>118</v>
       </c>
       <c r="B91" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C91" s="41" t="s">
-        <v>205</v>
+        <v>431</v>
       </c>
       <c r="D91" s="35" t="s">
-        <v>55</v>
+        <v>281</v>
       </c>
       <c r="E91" s="43" t="s">
-        <v>346</v>
+        <v>72</v>
       </c>
       <c r="F91" s="37"/>
       <c r="G91" s="37"/>
@@ -7482,7 +7479,7 @@
       <c r="U91" s="39"/>
       <c r="V91" s="40"/>
       <c r="W91" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="92" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7490,16 +7487,16 @@
         <v>119</v>
       </c>
       <c r="B92" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C92" s="41" t="s">
-        <v>205</v>
+        <v>431</v>
       </c>
       <c r="D92" s="35" t="s">
-        <v>56</v>
+        <v>282</v>
       </c>
       <c r="E92" s="43" t="s">
-        <v>347</v>
+        <v>73</v>
       </c>
       <c r="F92" s="37"/>
       <c r="G92" s="37"/>
@@ -7519,7 +7516,7 @@
       <c r="U92" s="39"/>
       <c r="V92" s="40"/>
       <c r="W92" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="93" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7527,16 +7524,16 @@
         <v>120</v>
       </c>
       <c r="B93" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C93" s="41" t="s">
-        <v>205</v>
+        <v>431</v>
       </c>
       <c r="D93" s="35" t="s">
-        <v>57</v>
+        <v>283</v>
       </c>
       <c r="E93" s="43" t="s">
-        <v>348</v>
+        <v>74</v>
       </c>
       <c r="F93" s="37"/>
       <c r="G93" s="37"/>
@@ -7556,7 +7553,7 @@
       <c r="U93" s="39"/>
       <c r="V93" s="40"/>
       <c r="W93" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="94" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7564,16 +7561,16 @@
         <v>121</v>
       </c>
       <c r="B94" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C94" s="41" t="s">
-        <v>205</v>
+        <v>431</v>
       </c>
       <c r="D94" s="35" t="s">
-        <v>58</v>
+        <v>284</v>
       </c>
       <c r="E94" s="43" t="s">
-        <v>349</v>
+        <v>75</v>
       </c>
       <c r="F94" s="37"/>
       <c r="G94" s="37"/>
@@ -7593,7 +7590,7 @@
       <c r="U94" s="39"/>
       <c r="V94" s="40"/>
       <c r="W94" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="95" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7601,16 +7598,16 @@
         <v>123</v>
       </c>
       <c r="B95" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C95" s="41" t="s">
-        <v>206</v>
+        <v>432</v>
       </c>
       <c r="D95" s="35" t="s">
-        <v>59</v>
+        <v>285</v>
       </c>
       <c r="E95" s="43" t="s">
-        <v>60</v>
+        <v>286</v>
       </c>
       <c r="F95" s="37"/>
       <c r="G95" s="37"/>
@@ -7630,7 +7627,7 @@
       <c r="U95" s="39"/>
       <c r="V95" s="40"/>
       <c r="W95" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="96" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7638,16 +7635,16 @@
         <v>125</v>
       </c>
       <c r="B96" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C96" s="41" t="s">
-        <v>206</v>
+        <v>432</v>
       </c>
       <c r="D96" s="35" t="s">
-        <v>61</v>
+        <v>287</v>
       </c>
       <c r="E96" s="43" t="s">
-        <v>350</v>
+        <v>76</v>
       </c>
       <c r="F96" s="37"/>
       <c r="G96" s="37"/>
@@ -7667,7 +7664,7 @@
       <c r="U96" s="39"/>
       <c r="V96" s="40"/>
       <c r="W96" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="97" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7675,16 +7672,16 @@
         <v>126</v>
       </c>
       <c r="B97" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C97" s="41" t="s">
-        <v>206</v>
+        <v>432</v>
       </c>
       <c r="D97" s="35" t="s">
-        <v>62</v>
+        <v>288</v>
       </c>
       <c r="E97" s="43" t="s">
-        <v>63</v>
+        <v>289</v>
       </c>
       <c r="F97" s="37"/>
       <c r="G97" s="37"/>
@@ -7704,7 +7701,7 @@
       <c r="U97" s="39"/>
       <c r="V97" s="40"/>
       <c r="W97" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="98" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7712,16 +7709,16 @@
         <v>127</v>
       </c>
       <c r="B98" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C98" s="41" t="s">
-        <v>206</v>
+        <v>432</v>
       </c>
       <c r="D98" s="35" t="s">
-        <v>64</v>
+        <v>290</v>
       </c>
       <c r="E98" s="43" t="s">
-        <v>65</v>
+        <v>291</v>
       </c>
       <c r="F98" s="37"/>
       <c r="G98" s="37"/>
@@ -7741,7 +7738,7 @@
       <c r="U98" s="39"/>
       <c r="V98" s="40"/>
       <c r="W98" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="99" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7749,16 +7746,16 @@
         <v>128</v>
       </c>
       <c r="B99" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C99" s="41" t="s">
-        <v>206</v>
+        <v>432</v>
       </c>
       <c r="D99" s="35" t="s">
-        <v>66</v>
+        <v>292</v>
       </c>
       <c r="E99" s="43" t="s">
-        <v>68</v>
+        <v>294</v>
       </c>
       <c r="F99" s="37"/>
       <c r="G99" s="37"/>
@@ -7778,7 +7775,7 @@
       <c r="U99" s="39"/>
       <c r="V99" s="40"/>
       <c r="W99" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="100" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7786,16 +7783,16 @@
         <v>129</v>
       </c>
       <c r="B100" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C100" s="41" t="s">
-        <v>206</v>
+        <v>432</v>
       </c>
       <c r="D100" s="35" t="s">
-        <v>69</v>
+        <v>295</v>
       </c>
       <c r="E100" s="43" t="s">
-        <v>360</v>
+        <v>86</v>
       </c>
       <c r="F100" s="37"/>
       <c r="G100" s="37"/>
@@ -7815,7 +7812,7 @@
       <c r="U100" s="39"/>
       <c r="V100" s="40"/>
       <c r="W100" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="101" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7823,16 +7820,16 @@
         <v>130</v>
       </c>
       <c r="B101" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C101" s="41" t="s">
-        <v>206</v>
+        <v>432</v>
       </c>
       <c r="D101" s="35" t="s">
-        <v>70</v>
+        <v>296</v>
       </c>
       <c r="E101" s="43" t="s">
-        <v>71</v>
+        <v>297</v>
       </c>
       <c r="F101" s="37"/>
       <c r="G101" s="37"/>
@@ -7852,7 +7849,7 @@
       <c r="U101" s="39"/>
       <c r="V101" s="40"/>
       <c r="W101" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="102" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7860,16 +7857,16 @@
         <v>131</v>
       </c>
       <c r="B102" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C102" s="41" t="s">
-        <v>206</v>
+        <v>432</v>
       </c>
       <c r="D102" s="35" t="s">
-        <v>72</v>
+        <v>298</v>
       </c>
       <c r="E102" s="43" t="s">
-        <v>73</v>
+        <v>299</v>
       </c>
       <c r="F102" s="37"/>
       <c r="G102" s="37"/>
@@ -7889,7 +7886,7 @@
       <c r="U102" s="39"/>
       <c r="V102" s="40"/>
       <c r="W102" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="103" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7897,16 +7894,16 @@
         <v>132</v>
       </c>
       <c r="B103" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C103" s="41" t="s">
-        <v>206</v>
+        <v>432</v>
       </c>
       <c r="D103" s="35" t="s">
-        <v>74</v>
+        <v>300</v>
       </c>
       <c r="E103" s="43" t="s">
-        <v>75</v>
+        <v>301</v>
       </c>
       <c r="F103" s="37"/>
       <c r="G103" s="37"/>
@@ -7926,7 +7923,7 @@
       <c r="U103" s="39"/>
       <c r="V103" s="40"/>
       <c r="W103" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="104" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7934,16 +7931,16 @@
         <v>133</v>
       </c>
       <c r="B104" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C104" s="41" t="s">
-        <v>206</v>
+        <v>432</v>
       </c>
       <c r="D104" s="35" t="s">
-        <v>76</v>
+        <v>302</v>
       </c>
       <c r="E104" s="43" t="s">
-        <v>427</v>
+        <v>17</v>
       </c>
       <c r="F104" s="37"/>
       <c r="G104" s="37"/>
@@ -7963,7 +7960,7 @@
       <c r="U104" s="39"/>
       <c r="V104" s="40"/>
       <c r="W104" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="105" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -7971,16 +7968,16 @@
         <v>134</v>
       </c>
       <c r="B105" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C105" s="41" t="s">
-        <v>206</v>
+        <v>432</v>
       </c>
       <c r="D105" s="35" t="s">
-        <v>77</v>
+        <v>303</v>
       </c>
       <c r="E105" s="43" t="s">
-        <v>78</v>
+        <v>304</v>
       </c>
       <c r="F105" s="37"/>
       <c r="G105" s="37"/>
@@ -8000,7 +7997,7 @@
       <c r="U105" s="39"/>
       <c r="V105" s="40"/>
       <c r="W105" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="106" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8008,16 +8005,16 @@
         <v>135</v>
       </c>
       <c r="B106" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C106" s="41" t="s">
-        <v>206</v>
+        <v>432</v>
       </c>
       <c r="D106" s="35" t="s">
-        <v>79</v>
+        <v>305</v>
       </c>
       <c r="E106" s="43" t="s">
-        <v>80</v>
+        <v>306</v>
       </c>
       <c r="F106" s="37"/>
       <c r="G106" s="37"/>
@@ -8037,7 +8034,7 @@
       <c r="U106" s="39"/>
       <c r="V106" s="40"/>
       <c r="W106" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="107" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8045,16 +8042,16 @@
         <v>136</v>
       </c>
       <c r="B107" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C107" s="41" t="s">
-        <v>206</v>
+        <v>432</v>
       </c>
       <c r="D107" s="35" t="s">
-        <v>81</v>
+        <v>307</v>
       </c>
       <c r="E107" s="43" t="s">
-        <v>82</v>
+        <v>308</v>
       </c>
       <c r="F107" s="37"/>
       <c r="G107" s="37"/>
@@ -8074,7 +8071,7 @@
       <c r="U107" s="39"/>
       <c r="V107" s="40"/>
       <c r="W107" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="108" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8082,16 +8079,16 @@
         <v>137</v>
       </c>
       <c r="B108" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C108" s="41" t="s">
-        <v>206</v>
+        <v>432</v>
       </c>
       <c r="D108" s="35" t="s">
-        <v>83</v>
+        <v>309</v>
       </c>
       <c r="E108" s="43" t="s">
-        <v>426</v>
+        <v>16</v>
       </c>
       <c r="F108" s="37"/>
       <c r="G108" s="37"/>
@@ -8111,7 +8108,7 @@
       <c r="U108" s="39"/>
       <c r="V108" s="40"/>
       <c r="W108" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="109" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8119,16 +8116,16 @@
         <v>138</v>
       </c>
       <c r="B109" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C109" s="41" t="s">
-        <v>206</v>
+        <v>432</v>
       </c>
       <c r="D109" s="35" t="s">
-        <v>84</v>
+        <v>310</v>
       </c>
       <c r="E109" s="43" t="s">
-        <v>85</v>
+        <v>311</v>
       </c>
       <c r="F109" s="37"/>
       <c r="G109" s="37"/>
@@ -8148,7 +8145,7 @@
       <c r="U109" s="39"/>
       <c r="V109" s="40"/>
       <c r="W109" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="110" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8156,16 +8153,16 @@
         <v>139</v>
       </c>
       <c r="B110" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C110" s="41" t="s">
-        <v>206</v>
+        <v>432</v>
       </c>
       <c r="D110" s="35" t="s">
-        <v>86</v>
+        <v>312</v>
       </c>
       <c r="E110" s="43" t="s">
-        <v>87</v>
+        <v>313</v>
       </c>
       <c r="F110" s="37"/>
       <c r="G110" s="37"/>
@@ -8185,7 +8182,7 @@
       <c r="U110" s="39"/>
       <c r="V110" s="40"/>
       <c r="W110" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="111" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8193,16 +8190,16 @@
         <v>140</v>
       </c>
       <c r="B111" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C111" s="41" t="s">
-        <v>206</v>
+        <v>432</v>
       </c>
       <c r="D111" s="35" t="s">
-        <v>88</v>
+        <v>314</v>
       </c>
       <c r="E111" s="43" t="s">
-        <v>90</v>
+        <v>316</v>
       </c>
       <c r="F111" s="37"/>
       <c r="G111" s="37"/>
@@ -8222,7 +8219,7 @@
       <c r="U111" s="39"/>
       <c r="V111" s="40"/>
       <c r="W111" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="112" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8230,16 +8227,16 @@
         <v>141</v>
       </c>
       <c r="B112" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C112" s="41" t="s">
-        <v>206</v>
+        <v>432</v>
       </c>
       <c r="D112" s="35" t="s">
-        <v>91</v>
+        <v>317</v>
       </c>
       <c r="E112" s="43" t="s">
-        <v>306</v>
+        <v>167</v>
       </c>
       <c r="F112" s="37"/>
       <c r="G112" s="37"/>
@@ -8259,7 +8256,7 @@
       <c r="U112" s="39"/>
       <c r="V112" s="40"/>
       <c r="W112" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="113" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8267,16 +8264,16 @@
         <v>142</v>
       </c>
       <c r="B113" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C113" s="41" t="s">
-        <v>206</v>
+        <v>432</v>
       </c>
       <c r="D113" s="35" t="s">
-        <v>92</v>
+        <v>318</v>
       </c>
       <c r="E113" s="43" t="s">
-        <v>93</v>
+        <v>319</v>
       </c>
       <c r="F113" s="37"/>
       <c r="G113" s="37"/>
@@ -8296,7 +8293,7 @@
       <c r="U113" s="39"/>
       <c r="V113" s="40"/>
       <c r="W113" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="114" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8304,16 +8301,16 @@
         <v>143</v>
       </c>
       <c r="B114" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C114" s="41" t="s">
-        <v>206</v>
+        <v>432</v>
       </c>
       <c r="D114" s="35" t="s">
-        <v>94</v>
+        <v>320</v>
       </c>
       <c r="E114" s="43" t="s">
-        <v>95</v>
+        <v>321</v>
       </c>
       <c r="F114" s="37"/>
       <c r="G114" s="37"/>
@@ -8333,7 +8330,7 @@
       <c r="U114" s="39"/>
       <c r="V114" s="40"/>
       <c r="W114" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="115" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8341,16 +8338,16 @@
         <v>144</v>
       </c>
       <c r="B115" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C115" s="41" t="s">
-        <v>206</v>
+        <v>432</v>
       </c>
       <c r="D115" s="35" t="s">
-        <v>96</v>
+        <v>322</v>
       </c>
       <c r="E115" s="43" t="s">
-        <v>97</v>
+        <v>323</v>
       </c>
       <c r="F115" s="37"/>
       <c r="G115" s="37"/>
@@ -8370,7 +8367,7 @@
       <c r="U115" s="39"/>
       <c r="V115" s="40"/>
       <c r="W115" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="116" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8378,16 +8375,16 @@
         <v>145</v>
       </c>
       <c r="B116" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C116" s="41" t="s">
-        <v>206</v>
+        <v>432</v>
       </c>
       <c r="D116" s="35" t="s">
-        <v>98</v>
+        <v>324</v>
       </c>
       <c r="E116" s="43" t="s">
-        <v>361</v>
+        <v>87</v>
       </c>
       <c r="F116" s="37"/>
       <c r="G116" s="37"/>
@@ -8407,7 +8404,7 @@
       <c r="U116" s="39"/>
       <c r="V116" s="40"/>
       <c r="W116" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="117" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -8415,16 +8412,16 @@
         <v>146</v>
       </c>
       <c r="B117" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C117" s="41" t="s">
-        <v>206</v>
+        <v>432</v>
       </c>
       <c r="D117" s="35" t="s">
-        <v>99</v>
+        <v>325</v>
       </c>
       <c r="E117" s="43" t="s">
-        <v>354</v>
+        <v>80</v>
       </c>
       <c r="F117" s="37"/>
       <c r="G117" s="37"/>
@@ -8444,7 +8441,7 @@
       <c r="U117" s="39"/>
       <c r="V117" s="40"/>
       <c r="W117" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="118" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
@@ -8452,26 +8449,26 @@
         <v>152</v>
       </c>
       <c r="B118" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C118" s="41" t="s">
-        <v>214</v>
+        <v>440</v>
       </c>
       <c r="D118" s="35" t="s">
-        <v>100</v>
+        <v>326</v>
       </c>
       <c r="E118" s="43" t="s">
-        <v>355</v>
+        <v>81</v>
       </c>
       <c r="F118" s="37"/>
       <c r="G118" s="37"/>
       <c r="H118" s="37"/>
       <c r="I118" s="42"/>
       <c r="J118" s="38" t="s">
-        <v>146</v>
+        <v>372</v>
       </c>
       <c r="K118" s="38" t="s">
-        <v>89</v>
+        <v>315</v>
       </c>
       <c r="L118" s="38"/>
       <c r="M118" s="38"/>
@@ -8485,7 +8482,7 @@
       <c r="U118" s="39"/>
       <c r="V118" s="40"/>
       <c r="W118" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="119" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
@@ -8493,26 +8490,26 @@
         <v>154</v>
       </c>
       <c r="B119" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C119" s="41" t="s">
-        <v>214</v>
+        <v>440</v>
       </c>
       <c r="D119" s="35" t="s">
-        <v>101</v>
+        <v>327</v>
       </c>
       <c r="E119" s="43" t="s">
-        <v>356</v>
+        <v>82</v>
       </c>
       <c r="F119" s="37"/>
       <c r="G119" s="37"/>
       <c r="H119" s="37"/>
       <c r="I119" s="42"/>
       <c r="J119" s="38" t="s">
-        <v>146</v>
+        <v>372</v>
       </c>
       <c r="K119" s="38" t="s">
-        <v>394</v>
+        <v>119</v>
       </c>
       <c r="L119" s="38"/>
       <c r="M119" s="38"/>
@@ -8526,7 +8523,7 @@
       <c r="U119" s="39"/>
       <c r="V119" s="40"/>
       <c r="W119" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="120" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
@@ -8534,26 +8531,26 @@
         <v>155</v>
       </c>
       <c r="B120" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C120" s="41" t="s">
-        <v>214</v>
+        <v>440</v>
       </c>
       <c r="D120" s="35" t="s">
-        <v>102</v>
+        <v>328</v>
       </c>
       <c r="E120" s="43" t="s">
-        <v>357</v>
+        <v>83</v>
       </c>
       <c r="F120" s="37"/>
       <c r="G120" s="37"/>
       <c r="H120" s="37"/>
       <c r="I120" s="42"/>
       <c r="J120" s="38" t="s">
-        <v>146</v>
+        <v>372</v>
       </c>
       <c r="K120" s="38" t="s">
-        <v>363</v>
+        <v>89</v>
       </c>
       <c r="L120" s="38"/>
       <c r="M120" s="38"/>
@@ -8567,7 +8564,7 @@
       <c r="U120" s="39"/>
       <c r="V120" s="40"/>
       <c r="W120" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="121" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
@@ -8575,26 +8572,26 @@
         <v>156</v>
       </c>
       <c r="B121" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C121" s="41" t="s">
-        <v>214</v>
+        <v>440</v>
       </c>
       <c r="D121" s="35" t="s">
-        <v>103</v>
+        <v>329</v>
       </c>
       <c r="E121" s="43" t="s">
-        <v>358</v>
+        <v>84</v>
       </c>
       <c r="F121" s="37"/>
       <c r="G121" s="37"/>
       <c r="H121" s="37"/>
       <c r="I121" s="42"/>
       <c r="J121" s="38" t="s">
-        <v>146</v>
+        <v>372</v>
       </c>
       <c r="K121" s="38" t="s">
-        <v>423</v>
+        <v>13</v>
       </c>
       <c r="L121" s="38"/>
       <c r="M121" s="38"/>
@@ -8608,7 +8605,7 @@
       <c r="U121" s="39"/>
       <c r="V121" s="40"/>
       <c r="W121" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="122" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
@@ -8616,26 +8613,26 @@
         <v>158</v>
       </c>
       <c r="B122" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C122" s="41" t="s">
-        <v>214</v>
+        <v>440</v>
       </c>
       <c r="D122" s="35" t="s">
-        <v>104</v>
+        <v>330</v>
       </c>
       <c r="E122" s="43" t="s">
-        <v>359</v>
+        <v>85</v>
       </c>
       <c r="F122" s="37"/>
       <c r="G122" s="37"/>
       <c r="H122" s="37"/>
       <c r="I122" s="42"/>
       <c r="J122" s="38" t="s">
-        <v>146</v>
+        <v>372</v>
       </c>
       <c r="K122" s="38" t="s">
-        <v>423</v>
+        <v>13</v>
       </c>
       <c r="L122" s="38"/>
       <c r="M122" s="38"/>
@@ -8649,7 +8646,7 @@
       <c r="U122" s="39"/>
       <c r="V122" s="40"/>
       <c r="W122" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="123" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
@@ -8657,26 +8654,26 @@
         <v>159</v>
       </c>
       <c r="B123" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C123" s="41" t="s">
-        <v>214</v>
+        <v>440</v>
       </c>
       <c r="D123" s="35" t="s">
-        <v>105</v>
+        <v>331</v>
       </c>
       <c r="E123" s="43" t="s">
-        <v>106</v>
+        <v>332</v>
       </c>
       <c r="F123" s="37"/>
       <c r="G123" s="37"/>
       <c r="H123" s="37"/>
       <c r="I123" s="42"/>
       <c r="J123" s="38" t="s">
-        <v>146</v>
+        <v>372</v>
       </c>
       <c r="K123" s="38" t="s">
-        <v>362</v>
+        <v>88</v>
       </c>
       <c r="L123" s="38"/>
       <c r="M123" s="38"/>
@@ -8690,7 +8687,7 @@
       <c r="U123" s="39"/>
       <c r="V123" s="40"/>
       <c r="W123" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="124" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
@@ -8698,26 +8695,26 @@
         <v>160</v>
       </c>
       <c r="B124" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C124" s="41" t="s">
-        <v>214</v>
+        <v>440</v>
       </c>
       <c r="D124" s="35" t="s">
-        <v>107</v>
+        <v>333</v>
       </c>
       <c r="E124" s="43" t="s">
-        <v>108</v>
+        <v>334</v>
       </c>
       <c r="F124" s="37"/>
       <c r="G124" s="37"/>
       <c r="H124" s="37"/>
       <c r="I124" s="42"/>
       <c r="J124" s="38" t="s">
-        <v>146</v>
+        <v>372</v>
       </c>
       <c r="K124" s="38" t="s">
-        <v>423</v>
+        <v>13</v>
       </c>
       <c r="L124" s="38"/>
       <c r="M124" s="38"/>
@@ -8731,7 +8728,7 @@
       <c r="U124" s="39"/>
       <c r="V124" s="40"/>
       <c r="W124" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="125" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
@@ -8739,26 +8736,26 @@
         <v>161</v>
       </c>
       <c r="B125" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C125" s="41" t="s">
-        <v>214</v>
+        <v>440</v>
       </c>
       <c r="D125" s="35" t="s">
-        <v>109</v>
+        <v>335</v>
       </c>
       <c r="E125" s="43" t="s">
-        <v>412</v>
+        <v>2</v>
       </c>
       <c r="F125" s="37"/>
       <c r="G125" s="37"/>
       <c r="H125" s="37"/>
       <c r="I125" s="42"/>
       <c r="J125" s="38" t="s">
-        <v>146</v>
+        <v>372</v>
       </c>
       <c r="K125" s="38" t="s">
-        <v>394</v>
+        <v>119</v>
       </c>
       <c r="L125" s="38"/>
       <c r="M125" s="38"/>
@@ -8772,7 +8769,7 @@
       <c r="U125" s="39"/>
       <c r="V125" s="40"/>
       <c r="W125" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="126" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
@@ -8780,26 +8777,26 @@
         <v>162</v>
       </c>
       <c r="B126" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C126" s="41" t="s">
-        <v>214</v>
+        <v>440</v>
       </c>
       <c r="D126" s="35" t="s">
-        <v>110</v>
+        <v>336</v>
       </c>
       <c r="E126" s="43" t="s">
-        <v>413</v>
+        <v>3</v>
       </c>
       <c r="F126" s="37"/>
       <c r="G126" s="37"/>
       <c r="H126" s="37"/>
       <c r="I126" s="42"/>
       <c r="J126" s="38" t="s">
-        <v>146</v>
+        <v>372</v>
       </c>
       <c r="K126" s="38" t="s">
-        <v>363</v>
+        <v>89</v>
       </c>
       <c r="L126" s="38"/>
       <c r="M126" s="38"/>
@@ -8813,7 +8810,7 @@
       <c r="U126" s="39"/>
       <c r="V126" s="40"/>
       <c r="W126" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="127" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
@@ -8821,26 +8818,26 @@
         <v>163</v>
       </c>
       <c r="B127" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C127" s="41" t="s">
-        <v>214</v>
+        <v>440</v>
       </c>
       <c r="D127" s="35" t="s">
-        <v>111</v>
+        <v>337</v>
       </c>
       <c r="E127" s="43" t="s">
-        <v>414</v>
+        <v>4</v>
       </c>
       <c r="F127" s="37"/>
       <c r="G127" s="37"/>
       <c r="H127" s="37"/>
       <c r="I127" s="42"/>
       <c r="J127" s="38" t="s">
-        <v>146</v>
+        <v>372</v>
       </c>
       <c r="K127" s="38" t="s">
-        <v>423</v>
+        <v>13</v>
       </c>
       <c r="L127" s="38"/>
       <c r="M127" s="38"/>
@@ -8854,7 +8851,7 @@
       <c r="U127" s="39"/>
       <c r="V127" s="40"/>
       <c r="W127" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="128" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
@@ -8862,26 +8859,26 @@
         <v>164</v>
       </c>
       <c r="B128" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C128" s="41" t="s">
-        <v>214</v>
+        <v>440</v>
       </c>
       <c r="D128" s="35" t="s">
-        <v>112</v>
+        <v>338</v>
       </c>
       <c r="E128" s="43" t="s">
-        <v>301</v>
+        <v>162</v>
       </c>
       <c r="F128" s="37"/>
       <c r="G128" s="37"/>
       <c r="H128" s="37"/>
       <c r="I128" s="42"/>
       <c r="J128" s="38" t="s">
-        <v>146</v>
+        <v>372</v>
       </c>
       <c r="K128" s="38" t="s">
-        <v>394</v>
+        <v>119</v>
       </c>
       <c r="L128" s="38"/>
       <c r="M128" s="38"/>
@@ -8895,7 +8892,7 @@
       <c r="U128" s="39"/>
       <c r="V128" s="40"/>
       <c r="W128" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="129" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
@@ -8903,26 +8900,26 @@
         <v>165</v>
       </c>
       <c r="B129" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C129" s="41" t="s">
-        <v>214</v>
+        <v>440</v>
       </c>
       <c r="D129" s="35" t="s">
-        <v>113</v>
+        <v>339</v>
       </c>
       <c r="E129" s="43" t="s">
-        <v>302</v>
+        <v>163</v>
       </c>
       <c r="F129" s="37"/>
       <c r="G129" s="37"/>
       <c r="H129" s="37"/>
       <c r="I129" s="42"/>
       <c r="J129" s="38" t="s">
-        <v>146</v>
+        <v>372</v>
       </c>
       <c r="K129" s="38" t="s">
-        <v>423</v>
+        <v>13</v>
       </c>
       <c r="L129" s="38"/>
       <c r="M129" s="38"/>
@@ -8936,7 +8933,7 @@
       <c r="U129" s="39"/>
       <c r="V129" s="40"/>
       <c r="W129" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="130" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
@@ -8944,26 +8941,26 @@
         <v>166</v>
       </c>
       <c r="B130" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C130" s="41" t="s">
-        <v>214</v>
+        <v>440</v>
       </c>
       <c r="D130" s="35" t="s">
-        <v>114</v>
+        <v>340</v>
       </c>
       <c r="E130" s="43" t="s">
-        <v>303</v>
+        <v>164</v>
       </c>
       <c r="F130" s="45"/>
       <c r="G130" s="37"/>
       <c r="H130" s="37"/>
       <c r="I130" s="42"/>
       <c r="J130" s="38" t="s">
-        <v>146</v>
+        <v>372</v>
       </c>
       <c r="K130" s="38" t="s">
-        <v>364</v>
+        <v>90</v>
       </c>
       <c r="L130" s="38"/>
       <c r="M130" s="38"/>
@@ -8977,7 +8974,7 @@
       <c r="U130" s="39"/>
       <c r="V130" s="40"/>
       <c r="W130" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="131" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
@@ -8985,26 +8982,26 @@
         <v>167</v>
       </c>
       <c r="B131" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C131" s="41" t="s">
-        <v>214</v>
+        <v>440</v>
       </c>
       <c r="D131" s="35" t="s">
-        <v>115</v>
+        <v>341</v>
       </c>
       <c r="E131" s="43" t="s">
-        <v>304</v>
+        <v>165</v>
       </c>
       <c r="F131" s="45"/>
       <c r="G131" s="37"/>
       <c r="H131" s="37"/>
       <c r="I131" s="42"/>
       <c r="J131" s="38" t="s">
-        <v>146</v>
+        <v>372</v>
       </c>
       <c r="K131" s="38" t="s">
-        <v>423</v>
+        <v>13</v>
       </c>
       <c r="L131" s="38"/>
       <c r="M131" s="38"/>
@@ -9018,7 +9015,7 @@
       <c r="U131" s="39"/>
       <c r="V131" s="40"/>
       <c r="W131" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="132" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
@@ -9026,26 +9023,26 @@
         <v>168</v>
       </c>
       <c r="B132" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C132" s="41" t="s">
-        <v>214</v>
+        <v>440</v>
       </c>
       <c r="D132" s="35" t="s">
-        <v>116</v>
+        <v>342</v>
       </c>
       <c r="E132" s="43" t="s">
-        <v>305</v>
+        <v>166</v>
       </c>
       <c r="F132" s="45"/>
       <c r="G132" s="37"/>
       <c r="H132" s="37"/>
       <c r="I132" s="42"/>
       <c r="J132" s="38" t="s">
-        <v>146</v>
+        <v>372</v>
       </c>
       <c r="K132" s="38" t="s">
-        <v>423</v>
+        <v>13</v>
       </c>
       <c r="L132" s="38"/>
       <c r="M132" s="38"/>
@@ -9059,7 +9056,7 @@
       <c r="U132" s="39"/>
       <c r="V132" s="40"/>
       <c r="W132" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="133" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
@@ -9067,29 +9064,29 @@
         <v>169</v>
       </c>
       <c r="B133" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C133" s="41" t="s">
-        <v>214</v>
+        <v>440</v>
       </c>
       <c r="D133" s="35" t="s">
-        <v>117</v>
+        <v>343</v>
       </c>
       <c r="E133" s="43" t="s">
-        <v>425</v>
+        <v>15</v>
       </c>
       <c r="F133" s="45"/>
       <c r="G133" s="37"/>
       <c r="H133" s="37"/>
       <c r="I133" s="42"/>
       <c r="J133" s="38" t="s">
-        <v>146</v>
+        <v>372</v>
       </c>
       <c r="K133" s="38" t="s">
-        <v>366</v>
+        <v>91</v>
       </c>
       <c r="L133" s="38" t="s">
-        <v>367</v>
+        <v>92</v>
       </c>
       <c r="M133" s="38"/>
       <c r="N133" s="38"/>
@@ -9102,7 +9099,7 @@
       <c r="U133" s="39"/>
       <c r="V133" s="40"/>
       <c r="W133" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="134" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9110,16 +9107,16 @@
         <v>175</v>
       </c>
       <c r="B134" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C134" s="41" t="s">
-        <v>211</v>
+        <v>437</v>
       </c>
       <c r="D134" s="35" t="s">
-        <v>120</v>
+        <v>346</v>
       </c>
       <c r="E134" s="43" t="s">
-        <v>374</v>
+        <v>99</v>
       </c>
       <c r="F134" s="37"/>
       <c r="G134" s="37"/>
@@ -9139,7 +9136,7 @@
       <c r="U134" s="39"/>
       <c r="V134" s="40"/>
       <c r="W134" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="135" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9147,16 +9144,16 @@
         <v>177</v>
       </c>
       <c r="B135" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C135" s="41" t="s">
-        <v>211</v>
+        <v>437</v>
       </c>
       <c r="D135" s="35" t="s">
-        <v>121</v>
+        <v>347</v>
       </c>
       <c r="E135" s="43" t="s">
-        <v>375</v>
+        <v>100</v>
       </c>
       <c r="F135" s="37"/>
       <c r="G135" s="37"/>
@@ -9176,7 +9173,7 @@
       <c r="U135" s="39"/>
       <c r="V135" s="40"/>
       <c r="W135" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="136" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9184,16 +9181,16 @@
         <v>178</v>
       </c>
       <c r="B136" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C136" s="41" t="s">
-        <v>211</v>
+        <v>437</v>
       </c>
       <c r="D136" s="35" t="s">
-        <v>122</v>
+        <v>348</v>
       </c>
       <c r="E136" s="43" t="s">
-        <v>376</v>
+        <v>101</v>
       </c>
       <c r="F136" s="37"/>
       <c r="G136" s="37"/>
@@ -9213,7 +9210,7 @@
       <c r="U136" s="39"/>
       <c r="V136" s="40"/>
       <c r="W136" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="137" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9221,16 +9218,16 @@
         <v>179</v>
       </c>
       <c r="B137" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C137" s="41" t="s">
-        <v>211</v>
+        <v>437</v>
       </c>
       <c r="D137" s="35" t="s">
-        <v>123</v>
+        <v>349</v>
       </c>
       <c r="E137" s="43" t="s">
-        <v>368</v>
+        <v>93</v>
       </c>
       <c r="F137" s="37"/>
       <c r="G137" s="37"/>
@@ -9250,7 +9247,7 @@
       <c r="U137" s="39"/>
       <c r="V137" s="40"/>
       <c r="W137" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="138" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9258,16 +9255,16 @@
         <v>180</v>
       </c>
       <c r="B138" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C138" s="41" t="s">
-        <v>211</v>
+        <v>437</v>
       </c>
       <c r="D138" s="35" t="s">
-        <v>124</v>
+        <v>350</v>
       </c>
       <c r="E138" s="43" t="s">
-        <v>369</v>
+        <v>94</v>
       </c>
       <c r="F138" s="37"/>
       <c r="G138" s="37"/>
@@ -9287,7 +9284,7 @@
       <c r="U138" s="39"/>
       <c r="V138" s="40"/>
       <c r="W138" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="139" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9295,16 +9292,16 @@
         <v>181</v>
       </c>
       <c r="B139" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C139" s="41" t="s">
-        <v>211</v>
+        <v>437</v>
       </c>
       <c r="D139" s="35" t="s">
-        <v>125</v>
+        <v>351</v>
       </c>
       <c r="E139" s="43" t="s">
-        <v>126</v>
+        <v>352</v>
       </c>
       <c r="F139" s="37"/>
       <c r="G139" s="37"/>
@@ -9324,7 +9321,7 @@
       <c r="U139" s="39"/>
       <c r="V139" s="40"/>
       <c r="W139" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="140" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9332,16 +9329,16 @@
         <v>182</v>
       </c>
       <c r="B140" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C140" s="41" t="s">
-        <v>211</v>
+        <v>437</v>
       </c>
       <c r="D140" s="35" t="s">
-        <v>127</v>
+        <v>353</v>
       </c>
       <c r="E140" s="43" t="s">
-        <v>370</v>
+        <v>95</v>
       </c>
       <c r="F140" s="37"/>
       <c r="G140" s="37"/>
@@ -9361,7 +9358,7 @@
       <c r="U140" s="39"/>
       <c r="V140" s="40"/>
       <c r="W140" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="141" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9369,16 +9366,16 @@
         <v>183</v>
       </c>
       <c r="B141" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C141" s="41" t="s">
-        <v>211</v>
+        <v>437</v>
       </c>
       <c r="D141" s="35" t="s">
-        <v>128</v>
+        <v>354</v>
       </c>
       <c r="E141" s="43" t="s">
-        <v>371</v>
+        <v>96</v>
       </c>
       <c r="F141" s="37"/>
       <c r="G141" s="37"/>
@@ -9398,7 +9395,7 @@
       <c r="U141" s="39"/>
       <c r="V141" s="40"/>
       <c r="W141" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="142" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9406,16 +9403,16 @@
         <v>184</v>
       </c>
       <c r="B142" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C142" s="41" t="s">
-        <v>211</v>
+        <v>437</v>
       </c>
       <c r="D142" s="35" t="s">
-        <v>129</v>
+        <v>355</v>
       </c>
       <c r="E142" s="43" t="s">
-        <v>372</v>
+        <v>97</v>
       </c>
       <c r="F142" s="37"/>
       <c r="G142" s="37"/>
@@ -9435,7 +9432,7 @@
       <c r="U142" s="39"/>
       <c r="V142" s="40"/>
       <c r="W142" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="143" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9443,16 +9440,16 @@
         <v>185</v>
       </c>
       <c r="B143" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C143" s="41" t="s">
-        <v>211</v>
+        <v>437</v>
       </c>
       <c r="D143" s="35" t="s">
-        <v>130</v>
+        <v>356</v>
       </c>
       <c r="E143" s="43" t="s">
-        <v>373</v>
+        <v>98</v>
       </c>
       <c r="F143" s="37"/>
       <c r="G143" s="37"/>
@@ -9472,7 +9469,7 @@
       <c r="U143" s="39"/>
       <c r="V143" s="40"/>
       <c r="W143" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="144" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9480,16 +9477,16 @@
         <v>186</v>
       </c>
       <c r="B144" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C144" s="41" t="s">
-        <v>211</v>
+        <v>437</v>
       </c>
       <c r="D144" s="35" t="s">
-        <v>131</v>
+        <v>357</v>
       </c>
       <c r="E144" s="43" t="s">
-        <v>390</v>
+        <v>115</v>
       </c>
       <c r="F144" s="37"/>
       <c r="G144" s="37"/>
@@ -9509,7 +9506,7 @@
       <c r="U144" s="39"/>
       <c r="V144" s="40"/>
       <c r="W144" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="145" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9517,16 +9514,16 @@
         <v>187</v>
       </c>
       <c r="B145" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C145" s="41" t="s">
-        <v>211</v>
+        <v>437</v>
       </c>
       <c r="D145" s="35" t="s">
-        <v>132</v>
+        <v>358</v>
       </c>
       <c r="E145" s="43" t="s">
-        <v>391</v>
+        <v>116</v>
       </c>
       <c r="F145" s="37"/>
       <c r="G145" s="37"/>
@@ -9546,7 +9543,7 @@
       <c r="U145" s="39"/>
       <c r="V145" s="40"/>
       <c r="W145" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="146" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9554,16 +9551,16 @@
         <v>188</v>
       </c>
       <c r="B146" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C146" s="41" t="s">
-        <v>211</v>
+        <v>437</v>
       </c>
       <c r="D146" s="35" t="s">
-        <v>133</v>
+        <v>359</v>
       </c>
       <c r="E146" s="43" t="s">
-        <v>377</v>
+        <v>102</v>
       </c>
       <c r="F146" s="37"/>
       <c r="G146" s="37"/>
@@ -9583,7 +9580,7 @@
       <c r="U146" s="39"/>
       <c r="V146" s="40"/>
       <c r="W146" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="147" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9591,16 +9588,16 @@
         <v>189</v>
       </c>
       <c r="B147" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C147" s="41" t="s">
-        <v>211</v>
+        <v>437</v>
       </c>
       <c r="D147" s="35" t="s">
-        <v>134</v>
+        <v>360</v>
       </c>
       <c r="E147" s="43" t="s">
-        <v>378</v>
+        <v>103</v>
       </c>
       <c r="F147" s="37"/>
       <c r="G147" s="37"/>
@@ -9620,7 +9617,7 @@
       <c r="U147" s="39"/>
       <c r="V147" s="40"/>
       <c r="W147" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="148" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9628,16 +9625,16 @@
         <v>190</v>
       </c>
       <c r="B148" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C148" s="41" t="s">
-        <v>211</v>
+        <v>437</v>
       </c>
       <c r="D148" s="35" t="s">
-        <v>135</v>
+        <v>361</v>
       </c>
       <c r="E148" s="43" t="s">
-        <v>379</v>
+        <v>104</v>
       </c>
       <c r="F148" s="37"/>
       <c r="G148" s="37"/>
@@ -9657,7 +9654,7 @@
       <c r="U148" s="39"/>
       <c r="V148" s="40"/>
       <c r="W148" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="149" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9665,16 +9662,16 @@
         <v>191</v>
       </c>
       <c r="B149" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C149" s="41" t="s">
-        <v>200</v>
+        <v>426</v>
       </c>
       <c r="D149" s="35" t="s">
-        <v>136</v>
+        <v>362</v>
       </c>
       <c r="E149" s="43" t="s">
-        <v>380</v>
+        <v>105</v>
       </c>
       <c r="F149" s="37"/>
       <c r="G149" s="37"/>
@@ -9694,7 +9691,7 @@
       <c r="U149" s="39"/>
       <c r="V149" s="40"/>
       <c r="W149" s="38" t="s">
-        <v>201</v>
+        <v>427</v>
       </c>
     </row>
     <row r="150" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9702,16 +9699,16 @@
         <v>376</v>
       </c>
       <c r="B150" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C150" s="41" t="s">
-        <v>200</v>
+        <v>426</v>
       </c>
       <c r="D150" s="35" t="s">
-        <v>137</v>
+        <v>363</v>
       </c>
       <c r="E150" s="43" t="s">
-        <v>400</v>
+        <v>125</v>
       </c>
       <c r="F150" s="37"/>
       <c r="G150" s="37"/>
@@ -9731,7 +9728,7 @@
       <c r="U150" s="39"/>
       <c r="V150" s="40"/>
       <c r="W150" s="38" t="s">
-        <v>201</v>
+        <v>427</v>
       </c>
     </row>
     <row r="151" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9739,16 +9736,16 @@
         <v>417</v>
       </c>
       <c r="B151" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C151" s="41" t="s">
-        <v>384</v>
+        <v>109</v>
       </c>
       <c r="D151" s="35" t="s">
-        <v>385</v>
+        <v>110</v>
       </c>
       <c r="E151" s="43" t="s">
-        <v>314</v>
+        <v>175</v>
       </c>
       <c r="F151" s="37"/>
       <c r="G151" s="37"/>
@@ -9768,7 +9765,7 @@
       <c r="U151" s="39"/>
       <c r="V151" s="40"/>
       <c r="W151" s="38" t="s">
-        <v>201</v>
+        <v>427</v>
       </c>
     </row>
     <row r="152" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9776,16 +9773,16 @@
         <v>418</v>
       </c>
       <c r="B152" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C152" s="41" t="s">
-        <v>384</v>
+        <v>109</v>
       </c>
       <c r="D152" s="35" t="s">
-        <v>386</v>
+        <v>111</v>
       </c>
       <c r="E152" s="43" t="s">
-        <v>313</v>
+        <v>174</v>
       </c>
       <c r="F152" s="37"/>
       <c r="G152" s="37"/>
@@ -9805,7 +9802,7 @@
       <c r="U152" s="39"/>
       <c r="V152" s="40"/>
       <c r="W152" s="38" t="s">
-        <v>201</v>
+        <v>427</v>
       </c>
     </row>
     <row r="153" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9813,16 +9810,16 @@
         <v>419</v>
       </c>
       <c r="B153" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C153" s="41" t="s">
-        <v>384</v>
+        <v>109</v>
       </c>
       <c r="D153" s="35" t="s">
-        <v>387</v>
+        <v>112</v>
       </c>
       <c r="E153" s="43" t="s">
-        <v>296</v>
+        <v>157</v>
       </c>
       <c r="F153" s="37"/>
       <c r="G153" s="37"/>
@@ -9842,7 +9839,7 @@
       <c r="U153" s="39"/>
       <c r="V153" s="40"/>
       <c r="W153" s="38" t="s">
-        <v>201</v>
+        <v>427</v>
       </c>
     </row>
     <row r="154" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9850,16 +9847,16 @@
         <v>423</v>
       </c>
       <c r="B154" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C154" s="41" t="s">
-        <v>384</v>
+        <v>109</v>
       </c>
       <c r="D154" s="35" t="s">
-        <v>388</v>
+        <v>113</v>
       </c>
       <c r="E154" s="43" t="s">
-        <v>208</v>
+        <v>434</v>
       </c>
       <c r="F154" s="37"/>
       <c r="G154" s="37"/>
@@ -9879,7 +9876,7 @@
       <c r="U154" s="39"/>
       <c r="V154" s="40"/>
       <c r="W154" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="155" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9887,16 +9884,16 @@
         <v>424</v>
       </c>
       <c r="B155" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C155" s="41" t="s">
-        <v>384</v>
+        <v>109</v>
       </c>
       <c r="D155" s="35" t="s">
-        <v>389</v>
+        <v>114</v>
       </c>
       <c r="E155" s="43" t="s">
-        <v>220</v>
+        <v>446</v>
       </c>
       <c r="F155" s="37"/>
       <c r="G155" s="37"/>
@@ -9916,7 +9913,7 @@
       <c r="U155" s="39"/>
       <c r="V155" s="40"/>
       <c r="W155" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="156" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9924,16 +9921,16 @@
         <v>425</v>
       </c>
       <c r="B156" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C156" s="41" t="s">
-        <v>384</v>
+        <v>109</v>
       </c>
       <c r="D156" s="35" t="s">
-        <v>274</v>
+        <v>135</v>
       </c>
       <c r="E156" s="43" t="s">
-        <v>283</v>
+        <v>144</v>
       </c>
       <c r="F156" s="37"/>
       <c r="G156" s="37"/>
@@ -9953,7 +9950,7 @@
       <c r="U156" s="39"/>
       <c r="V156" s="40"/>
       <c r="W156" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="157" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9961,16 +9958,16 @@
         <v>432</v>
       </c>
       <c r="B157" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C157" s="41" t="s">
-        <v>384</v>
+        <v>109</v>
       </c>
       <c r="D157" s="35" t="s">
-        <v>275</v>
+        <v>136</v>
       </c>
       <c r="E157" s="43" t="s">
-        <v>399</v>
+        <v>124</v>
       </c>
       <c r="F157" s="37"/>
       <c r="G157" s="37"/>
@@ -9990,7 +9987,7 @@
       <c r="U157" s="39"/>
       <c r="V157" s="40"/>
       <c r="W157" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="158" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -9998,16 +9995,16 @@
         <v>433</v>
       </c>
       <c r="B158" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C158" s="41" t="s">
-        <v>384</v>
+        <v>109</v>
       </c>
       <c r="D158" s="35" t="s">
-        <v>276</v>
+        <v>137</v>
       </c>
       <c r="E158" s="43" t="s">
-        <v>291</v>
+        <v>152</v>
       </c>
       <c r="F158" s="37"/>
       <c r="G158" s="37"/>
@@ -10027,7 +10024,7 @@
       <c r="U158" s="39"/>
       <c r="V158" s="40"/>
       <c r="W158" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="159" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10035,16 +10032,16 @@
         <v>434</v>
       </c>
       <c r="B159" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C159" s="41" t="s">
-        <v>384</v>
+        <v>109</v>
       </c>
       <c r="D159" s="35" t="s">
-        <v>277</v>
+        <v>138</v>
       </c>
       <c r="E159" s="43" t="s">
-        <v>292</v>
+        <v>153</v>
       </c>
       <c r="F159" s="37"/>
       <c r="G159" s="37"/>
@@ -10064,7 +10061,7 @@
       <c r="U159" s="39"/>
       <c r="V159" s="40"/>
       <c r="W159" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="160" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10072,16 +10069,16 @@
         <v>435</v>
       </c>
       <c r="B160" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C160" s="41" t="s">
-        <v>384</v>
+        <v>109</v>
       </c>
       <c r="D160" s="35" t="s">
-        <v>278</v>
+        <v>139</v>
       </c>
       <c r="E160" s="43" t="s">
-        <v>293</v>
+        <v>154</v>
       </c>
       <c r="F160" s="37"/>
       <c r="G160" s="37"/>
@@ -10101,7 +10098,7 @@
       <c r="U160" s="39"/>
       <c r="V160" s="40"/>
       <c r="W160" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="161" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10109,16 +10106,16 @@
         <v>437</v>
       </c>
       <c r="B161" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C161" s="41" t="s">
-        <v>384</v>
+        <v>109</v>
       </c>
       <c r="D161" s="35" t="s">
-        <v>279</v>
+        <v>140</v>
       </c>
       <c r="E161" s="43" t="s">
-        <v>284</v>
+        <v>145</v>
       </c>
       <c r="F161" s="37"/>
       <c r="G161" s="37"/>
@@ -10138,7 +10135,7 @@
       <c r="U161" s="39"/>
       <c r="V161" s="40"/>
       <c r="W161" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="162" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10146,16 +10143,16 @@
         <v>438</v>
       </c>
       <c r="B162" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C162" s="41" t="s">
-        <v>384</v>
+        <v>109</v>
       </c>
       <c r="D162" s="35" t="s">
-        <v>280</v>
+        <v>141</v>
       </c>
       <c r="E162" s="43" t="s">
-        <v>285</v>
+        <v>146</v>
       </c>
       <c r="F162" s="37"/>
       <c r="G162" s="37"/>
@@ -10175,7 +10172,7 @@
       <c r="U162" s="39"/>
       <c r="V162" s="40"/>
       <c r="W162" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="163" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10183,16 +10180,16 @@
         <v>440</v>
       </c>
       <c r="B163" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C163" s="41" t="s">
-        <v>384</v>
+        <v>109</v>
       </c>
       <c r="D163" s="35" t="s">
-        <v>281</v>
+        <v>142</v>
       </c>
       <c r="E163" s="43" t="s">
-        <v>294</v>
+        <v>155</v>
       </c>
       <c r="F163" s="37"/>
       <c r="G163" s="37"/>
@@ -10212,7 +10209,7 @@
       <c r="U163" s="39"/>
       <c r="V163" s="40"/>
       <c r="W163" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="164" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10220,16 +10217,16 @@
         <v>441</v>
       </c>
       <c r="B164" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C164" s="41" t="s">
-        <v>384</v>
+        <v>109</v>
       </c>
       <c r="D164" s="35" t="s">
-        <v>282</v>
+        <v>143</v>
       </c>
       <c r="E164" s="43" t="s">
-        <v>295</v>
+        <v>156</v>
       </c>
       <c r="F164" s="37"/>
       <c r="G164" s="37"/>
@@ -10249,7 +10246,7 @@
       <c r="U164" s="39"/>
       <c r="V164" s="40"/>
       <c r="W164" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="165" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10257,16 +10254,16 @@
         <v>442</v>
       </c>
       <c r="B165" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C165" s="41" t="s">
-        <v>384</v>
+        <v>109</v>
       </c>
       <c r="D165" s="35" t="s">
-        <v>286</v>
+        <v>147</v>
       </c>
       <c r="E165" s="43" t="s">
-        <v>396</v>
+        <v>121</v>
       </c>
       <c r="F165" s="37"/>
       <c r="G165" s="37"/>
@@ -10286,7 +10283,7 @@
       <c r="U165" s="39"/>
       <c r="V165" s="40"/>
       <c r="W165" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="166" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10294,16 +10291,16 @@
         <v>443</v>
       </c>
       <c r="B166" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C166" s="41" t="s">
-        <v>384</v>
+        <v>109</v>
       </c>
       <c r="D166" s="35" t="s">
-        <v>395</v>
+        <v>120</v>
       </c>
       <c r="E166" s="43" t="s">
-        <v>397</v>
+        <v>122</v>
       </c>
       <c r="F166" s="37"/>
       <c r="G166" s="37"/>
@@ -10323,7 +10320,7 @@
       <c r="U166" s="39"/>
       <c r="V166" s="40"/>
       <c r="W166" s="38" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="167" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10331,16 +10328,16 @@
         <v>444</v>
       </c>
       <c r="B167" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C167" s="41" t="s">
-        <v>211</v>
+        <v>437</v>
       </c>
       <c r="D167" s="35" t="s">
-        <v>118</v>
+        <v>344</v>
       </c>
       <c r="E167" s="43" t="s">
-        <v>162</v>
+        <v>388</v>
       </c>
       <c r="F167" s="37"/>
       <c r="G167" s="37"/>
@@ -10360,7 +10357,7 @@
       <c r="U167" s="39"/>
       <c r="V167" s="40"/>
       <c r="W167" s="38" t="s">
-        <v>201</v>
+        <v>427</v>
       </c>
     </row>
     <row r="168" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10368,16 +10365,16 @@
         <v>445</v>
       </c>
       <c r="B168" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C168" s="41" t="s">
-        <v>211</v>
+        <v>437</v>
       </c>
       <c r="D168" s="35" t="s">
-        <v>119</v>
+        <v>345</v>
       </c>
       <c r="E168" s="43" t="s">
-        <v>163</v>
+        <v>389</v>
       </c>
       <c r="F168" s="37"/>
       <c r="G168" s="37"/>
@@ -10397,7 +10394,7 @@
       <c r="U168" s="39"/>
       <c r="V168" s="40"/>
       <c r="W168" s="38" t="s">
-        <v>201</v>
+        <v>427</v>
       </c>
     </row>
     <row r="169" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
@@ -10405,31 +10402,31 @@
         <v>448</v>
       </c>
       <c r="B169" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C169" s="41" t="s">
-        <v>214</v>
+        <v>440</v>
       </c>
       <c r="D169" s="35" t="s">
-        <v>429</v>
+        <v>19</v>
       </c>
       <c r="E169" s="43" t="s">
-        <v>431</v>
+        <v>21</v>
       </c>
       <c r="F169" s="45">
         <v>45786</v>
       </c>
       <c r="G169" s="37" t="s">
-        <v>27</v>
+        <v>253</v>
       </c>
       <c r="H169" s="37" t="s">
-        <v>28</v>
+        <v>254</v>
       </c>
       <c r="I169" s="42" t="s">
-        <v>29</v>
+        <v>255</v>
       </c>
       <c r="J169" s="38" t="s">
-        <v>229</v>
+        <v>455</v>
       </c>
       <c r="K169" s="38"/>
       <c r="L169" s="38"/>
@@ -10444,7 +10441,7 @@
       <c r="U169" s="39"/>
       <c r="V169" s="40"/>
       <c r="W169" s="38" t="s">
-        <v>201</v>
+        <v>427</v>
       </c>
     </row>
     <row r="170" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
@@ -10452,31 +10449,31 @@
         <v>449</v>
       </c>
       <c r="B170" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C170" s="41" t="s">
-        <v>214</v>
+        <v>440</v>
       </c>
       <c r="D170" s="35" t="s">
-        <v>430</v>
+        <v>20</v>
       </c>
       <c r="E170" s="43" t="s">
-        <v>432</v>
+        <v>22</v>
       </c>
       <c r="F170" s="45">
         <v>45786</v>
       </c>
       <c r="G170" s="37" t="s">
-        <v>32</v>
+        <v>258</v>
       </c>
       <c r="H170" s="37" t="s">
-        <v>31</v>
+        <v>257</v>
       </c>
       <c r="I170" s="42" t="s">
-        <v>30</v>
+        <v>256</v>
       </c>
       <c r="J170" s="38" t="s">
-        <v>229</v>
+        <v>455</v>
       </c>
       <c r="K170" s="38"/>
       <c r="L170" s="38"/>
@@ -10491,7 +10488,7 @@
       <c r="U170" s="39"/>
       <c r="V170" s="40"/>
       <c r="W170" s="38" t="s">
-        <v>201</v>
+        <v>427</v>
       </c>
     </row>
     <row r="171" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10499,16 +10496,16 @@
         <v>450</v>
       </c>
       <c r="B171" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C171" s="41" t="s">
-        <v>202</v>
+        <v>428</v>
       </c>
       <c r="D171" s="35" t="s">
-        <v>288</v>
+        <v>149</v>
       </c>
       <c r="E171" s="43" t="s">
-        <v>290</v>
+        <v>151</v>
       </c>
       <c r="F171" s="37"/>
       <c r="G171" s="37"/>
@@ -10528,7 +10525,7 @@
       <c r="U171" s="39"/>
       <c r="V171" s="40"/>
       <c r="W171" s="38" t="s">
-        <v>201</v>
+        <v>427</v>
       </c>
     </row>
     <row r="172" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10536,16 +10533,16 @@
         <v>451</v>
       </c>
       <c r="B172" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C172" s="41" t="s">
-        <v>202</v>
+        <v>428</v>
       </c>
       <c r="D172" s="35" t="s">
-        <v>289</v>
+        <v>150</v>
       </c>
       <c r="E172" s="43" t="s">
-        <v>415</v>
+        <v>5</v>
       </c>
       <c r="F172" s="37"/>
       <c r="G172" s="37"/>
@@ -10565,7 +10562,7 @@
       <c r="U172" s="39"/>
       <c r="V172" s="40"/>
       <c r="W172" s="38" t="s">
-        <v>201</v>
+        <v>427</v>
       </c>
     </row>
     <row r="173" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10573,16 +10570,16 @@
         <v>452</v>
       </c>
       <c r="B173" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C173" s="41" t="s">
-        <v>200</v>
+        <v>426</v>
       </c>
       <c r="D173" s="35" t="s">
-        <v>409</v>
+        <v>134</v>
       </c>
       <c r="E173" s="43" t="s">
-        <v>410</v>
+        <v>0</v>
       </c>
       <c r="F173" s="37"/>
       <c r="G173" s="37"/>
@@ -10602,7 +10599,7 @@
       <c r="U173" s="39"/>
       <c r="V173" s="40"/>
       <c r="W173" s="38" t="s">
-        <v>201</v>
+        <v>427</v>
       </c>
     </row>
     <row r="174" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10610,16 +10607,16 @@
         <v>454</v>
       </c>
       <c r="B174" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C174" s="41" t="s">
-        <v>206</v>
+        <v>432</v>
       </c>
       <c r="D174" s="35" t="s">
-        <v>298</v>
+        <v>159</v>
       </c>
       <c r="E174" s="43" t="s">
-        <v>428</v>
+        <v>18</v>
       </c>
       <c r="F174" s="37"/>
       <c r="G174" s="37"/>
@@ -10639,7 +10636,7 @@
       <c r="U174" s="39"/>
       <c r="V174" s="40"/>
       <c r="W174" s="38" t="s">
-        <v>201</v>
+        <v>427</v>
       </c>
     </row>
     <row r="175" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10647,16 +10644,16 @@
         <v>455</v>
       </c>
       <c r="B175" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C175" s="41" t="s">
-        <v>206</v>
+        <v>432</v>
       </c>
       <c r="D175" s="35" t="s">
-        <v>299</v>
+        <v>160</v>
       </c>
       <c r="E175" s="43" t="s">
-        <v>300</v>
+        <v>161</v>
       </c>
       <c r="F175" s="37"/>
       <c r="G175" s="37"/>
@@ -10676,7 +10673,7 @@
       <c r="U175" s="39"/>
       <c r="V175" s="40"/>
       <c r="W175" s="38" t="s">
-        <v>201</v>
+        <v>427</v>
       </c>
     </row>
     <row r="176" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10684,16 +10681,16 @@
         <v>456</v>
       </c>
       <c r="B176" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C176" s="41" t="s">
-        <v>205</v>
+        <v>431</v>
       </c>
       <c r="D176" s="35" t="s">
-        <v>420</v>
+        <v>10</v>
       </c>
       <c r="E176" s="43" t="s">
-        <v>421</v>
+        <v>11</v>
       </c>
       <c r="F176" s="37"/>
       <c r="G176" s="37"/>
@@ -10713,7 +10710,7 @@
       <c r="U176" s="39"/>
       <c r="V176" s="40"/>
       <c r="W176" s="38" t="s">
-        <v>201</v>
+        <v>427</v>
       </c>
     </row>
     <row r="177" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10721,16 +10718,16 @@
         <v>457</v>
       </c>
       <c r="B177" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C177" s="41" t="s">
-        <v>205</v>
+        <v>431</v>
       </c>
       <c r="D177" s="35" t="s">
-        <v>422</v>
+        <v>12</v>
       </c>
       <c r="E177" s="43" t="s">
-        <v>297</v>
+        <v>158</v>
       </c>
       <c r="F177" s="37"/>
       <c r="G177" s="37"/>
@@ -10750,7 +10747,7 @@
       <c r="U177" s="39"/>
       <c r="V177" s="40"/>
       <c r="W177" s="38" t="s">
-        <v>201</v>
+        <v>427</v>
       </c>
     </row>
     <row r="178" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1">
@@ -10758,16 +10755,16 @@
         <v>458</v>
       </c>
       <c r="B178" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C178" s="41" t="s">
-        <v>204</v>
+        <v>430</v>
       </c>
       <c r="D178" s="35" t="s">
-        <v>416</v>
+        <v>6</v>
       </c>
       <c r="E178" s="43" t="s">
-        <v>418</v>
+        <v>8</v>
       </c>
       <c r="F178" s="37"/>
       <c r="G178" s="37"/>
@@ -10787,7 +10784,7 @@
       <c r="U178" s="39"/>
       <c r="V178" s="40"/>
       <c r="W178" s="38" t="s">
-        <v>201</v>
+        <v>427</v>
       </c>
     </row>
     <row r="179" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10795,16 +10792,16 @@
         <v>459</v>
       </c>
       <c r="B179" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C179" s="41" t="s">
-        <v>204</v>
+        <v>430</v>
       </c>
       <c r="D179" s="35" t="s">
-        <v>417</v>
+        <v>7</v>
       </c>
       <c r="E179" s="43" t="s">
-        <v>419</v>
+        <v>9</v>
       </c>
       <c r="F179" s="37"/>
       <c r="G179" s="37"/>
@@ -10824,7 +10821,7 @@
       <c r="U179" s="39"/>
       <c r="V179" s="40"/>
       <c r="W179" s="38" t="s">
-        <v>201</v>
+        <v>427</v>
       </c>
     </row>
     <row r="180" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10832,16 +10829,16 @@
         <v>460</v>
       </c>
       <c r="B180" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C180" s="41" t="s">
-        <v>384</v>
+        <v>109</v>
       </c>
       <c r="D180" s="35" t="s">
-        <v>407</v>
+        <v>132</v>
       </c>
       <c r="E180" s="43" t="s">
-        <v>408</v>
+        <v>133</v>
       </c>
       <c r="F180" s="37"/>
       <c r="G180" s="37"/>
@@ -10861,7 +10858,7 @@
       <c r="U180" s="39"/>
       <c r="V180" s="40"/>
       <c r="W180" s="38" t="s">
-        <v>201</v>
+        <v>427</v>
       </c>
     </row>
     <row r="181" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
@@ -10869,26 +10866,26 @@
         <v>461</v>
       </c>
       <c r="B181" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C181" s="41" t="s">
-        <v>214</v>
+        <v>440</v>
       </c>
       <c r="D181" s="35" t="s">
-        <v>434</v>
+        <v>24</v>
       </c>
       <c r="E181" s="43" t="s">
-        <v>433</v>
+        <v>23</v>
       </c>
       <c r="F181" s="46"/>
       <c r="G181" s="35"/>
       <c r="H181" s="35"/>
       <c r="I181" s="35"/>
       <c r="J181" s="38" t="s">
-        <v>146</v>
+        <v>372</v>
       </c>
       <c r="K181" s="38" t="s">
-        <v>423</v>
+        <v>13</v>
       </c>
       <c r="L181" s="35"/>
       <c r="M181" s="38"/>
@@ -10902,7 +10899,7 @@
       <c r="U181" s="35"/>
       <c r="V181" s="35"/>
       <c r="W181" s="35" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="182" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
@@ -10910,26 +10907,26 @@
         <v>462</v>
       </c>
       <c r="B182" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C182" s="41" t="s">
-        <v>203</v>
+        <v>429</v>
       </c>
       <c r="D182" s="35" t="s">
-        <v>437</v>
+        <v>27</v>
       </c>
       <c r="E182" s="43" t="s">
-        <v>307</v>
+        <v>168</v>
       </c>
       <c r="F182" s="46"/>
       <c r="G182" s="35"/>
       <c r="H182" s="35"/>
       <c r="I182" s="35"/>
       <c r="J182" s="38" t="s">
-        <v>146</v>
+        <v>372</v>
       </c>
       <c r="K182" s="38" t="s">
-        <v>423</v>
+        <v>13</v>
       </c>
       <c r="L182" s="35"/>
       <c r="M182" s="38"/>
@@ -10943,7 +10940,7 @@
       <c r="U182" s="35"/>
       <c r="V182" s="35"/>
       <c r="W182" s="35" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="183" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10951,16 +10948,16 @@
         <v>463</v>
       </c>
       <c r="B183" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C183" s="41" t="s">
-        <v>206</v>
+        <v>432</v>
       </c>
       <c r="D183" s="35" t="s">
-        <v>308</v>
+        <v>169</v>
       </c>
       <c r="E183" s="43" t="s">
-        <v>309</v>
+        <v>170</v>
       </c>
       <c r="F183" s="35"/>
       <c r="G183" s="35"/>
@@ -10980,7 +10977,7 @@
       <c r="U183" s="35"/>
       <c r="V183" s="35"/>
       <c r="W183" s="35" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="184" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -10988,16 +10985,16 @@
         <v>464</v>
       </c>
       <c r="B184" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C184" s="41" t="s">
-        <v>204</v>
+        <v>430</v>
       </c>
       <c r="D184" s="35" t="s">
-        <v>310</v>
+        <v>171</v>
       </c>
       <c r="E184" s="43" t="s">
-        <v>311</v>
+        <v>172</v>
       </c>
       <c r="F184" s="35"/>
       <c r="G184" s="35"/>
@@ -11017,7 +11014,7 @@
       <c r="U184" s="35"/>
       <c r="V184" s="35"/>
       <c r="W184" s="35" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="185" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -11025,16 +11022,16 @@
         <v>465</v>
       </c>
       <c r="B185" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C185" s="41" t="s">
-        <v>205</v>
+        <v>431</v>
       </c>
       <c r="D185" s="35" t="s">
-        <v>312</v>
+        <v>173</v>
       </c>
       <c r="E185" s="43" t="s">
-        <v>441</v>
+        <v>31</v>
       </c>
       <c r="F185" s="35"/>
       <c r="G185" s="35"/>
@@ -11054,7 +11051,7 @@
       <c r="U185" s="35"/>
       <c r="V185" s="35"/>
       <c r="W185" s="35" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="186" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -11062,16 +11059,16 @@
         <v>466</v>
       </c>
       <c r="B186" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C186" s="41" t="s">
-        <v>200</v>
+        <v>426</v>
       </c>
       <c r="D186" s="35" t="s">
-        <v>450</v>
+        <v>40</v>
       </c>
       <c r="E186" s="44" t="s">
-        <v>318</v>
+        <v>179</v>
       </c>
       <c r="F186" s="35"/>
       <c r="G186" s="35"/>
@@ -11091,7 +11088,7 @@
       <c r="U186" s="35"/>
       <c r="V186" s="35"/>
       <c r="W186" s="35" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="187" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -11099,16 +11096,16 @@
         <v>467</v>
       </c>
       <c r="B187" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C187" s="41" t="s">
-        <v>202</v>
+        <v>428</v>
       </c>
       <c r="D187" s="35" t="s">
-        <v>442</v>
+        <v>32</v>
       </c>
       <c r="E187" s="43" t="s">
-        <v>443</v>
+        <v>33</v>
       </c>
       <c r="F187" s="35"/>
       <c r="G187" s="35"/>
@@ -11128,7 +11125,7 @@
       <c r="U187" s="35"/>
       <c r="V187" s="35"/>
       <c r="W187" s="35" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="188" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
@@ -11136,29 +11133,29 @@
         <v>468</v>
       </c>
       <c r="B188" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C188" s="41" t="s">
-        <v>214</v>
+        <v>440</v>
       </c>
       <c r="D188" s="35" t="s">
-        <v>444</v>
+        <v>34</v>
       </c>
       <c r="E188" s="43" t="s">
-        <v>445</v>
+        <v>35</v>
       </c>
       <c r="F188" s="46"/>
       <c r="G188" s="35"/>
       <c r="H188" s="35"/>
       <c r="I188" s="35"/>
       <c r="J188" s="38" t="s">
-        <v>146</v>
+        <v>372</v>
       </c>
       <c r="K188" s="38" t="s">
-        <v>366</v>
+        <v>91</v>
       </c>
       <c r="L188" s="35" t="s">
-        <v>67</v>
+        <v>293</v>
       </c>
       <c r="M188" s="38"/>
       <c r="N188" s="38"/>
@@ -11171,7 +11168,7 @@
       <c r="U188" s="35"/>
       <c r="V188" s="35"/>
       <c r="W188" s="35" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="189" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -11179,16 +11176,16 @@
         <v>469</v>
       </c>
       <c r="B189" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C189" s="41" t="s">
-        <v>211</v>
+        <v>437</v>
       </c>
       <c r="D189" s="35" t="s">
-        <v>446</v>
+        <v>36</v>
       </c>
       <c r="E189" s="43" t="s">
-        <v>447</v>
+        <v>37</v>
       </c>
       <c r="F189" s="35"/>
       <c r="G189" s="35"/>
@@ -11208,7 +11205,7 @@
       <c r="U189" s="35"/>
       <c r="V189" s="35"/>
       <c r="W189" s="35" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="190" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1">
@@ -11216,16 +11213,16 @@
         <v>470</v>
       </c>
       <c r="B190" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C190" s="41" t="s">
-        <v>384</v>
+        <v>109</v>
       </c>
       <c r="D190" s="35" t="s">
-        <v>448</v>
+        <v>38</v>
       </c>
       <c r="E190" s="43" t="s">
-        <v>449</v>
+        <v>39</v>
       </c>
       <c r="F190" s="35"/>
       <c r="G190" s="35"/>
@@ -11245,7 +11242,7 @@
       <c r="U190" s="35"/>
       <c r="V190" s="35"/>
       <c r="W190" s="35" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
     </row>
     <row r="191" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
@@ -11253,31 +11250,31 @@
         <v>471</v>
       </c>
       <c r="B191" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C191" s="41" t="s">
-        <v>203</v>
+        <v>429</v>
       </c>
       <c r="D191" s="35" t="s">
-        <v>319</v>
+        <v>180</v>
       </c>
       <c r="E191" s="43" t="s">
-        <v>320</v>
+        <v>181</v>
       </c>
       <c r="F191" s="45">
         <v>45786</v>
       </c>
       <c r="G191" s="37" t="s">
-        <v>41</v>
+        <v>267</v>
       </c>
       <c r="H191" s="37" t="s">
-        <v>42</v>
+        <v>268</v>
       </c>
       <c r="I191" s="42" t="s">
-        <v>43</v>
+        <v>269</v>
       </c>
       <c r="J191" s="38" t="s">
-        <v>229</v>
+        <v>455</v>
       </c>
       <c r="K191" s="38"/>
       <c r="L191" s="38"/>
@@ -11292,7 +11289,7 @@
       <c r="U191" s="39"/>
       <c r="V191" s="40"/>
       <c r="W191" s="38" t="s">
-        <v>201</v>
+        <v>427</v>
       </c>
     </row>
     <row r="192" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
@@ -11300,31 +11297,31 @@
         <v>472</v>
       </c>
       <c r="B192" s="35" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C192" s="41" t="s">
-        <v>203</v>
+        <v>429</v>
       </c>
       <c r="D192" s="35" t="s">
-        <v>465</v>
+        <v>55</v>
       </c>
       <c r="E192" s="43" t="s">
-        <v>466</v>
+        <v>56</v>
       </c>
       <c r="F192" s="45">
         <v>45786</v>
       </c>
       <c r="G192" s="37" t="s">
-        <v>44</v>
+        <v>270</v>
       </c>
       <c r="H192" s="37" t="s">
-        <v>45</v>
+        <v>271</v>
       </c>
       <c r="I192" s="42" t="s">
-        <v>46</v>
+        <v>272</v>
       </c>
       <c r="J192" s="38" t="s">
-        <v>229</v>
+        <v>455</v>
       </c>
       <c r="K192" s="38"/>
       <c r="L192" s="38"/>
@@ -11339,7 +11336,7 @@
       <c r="U192" s="39"/>
       <c r="V192" s="40"/>
       <c r="W192" s="38" t="s">
-        <v>201</v>
+        <v>427</v>
       </c>
     </row>
     <row r="193" spans="6:23" ht="14.25" customHeight="1">
@@ -15455,42 +15452,42 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>150</v>
+        <v>376</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>152</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>153</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>154</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>155</v>
+        <v>381</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>156</v>
+        <v>382</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>157</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -15521,162 +15518,162 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A1" s="29" t="s">
-        <v>398</v>
+        <v>123</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>180</v>
+        <v>406</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>138</v>
+        <v>364</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>139</v>
+        <v>365</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>159</v>
+        <v>385</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>323</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>200</v>
+        <v>426</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>140</v>
+        <v>366</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>435</v>
+        <v>25</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>451</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>202</v>
+        <v>428</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>140</v>
+        <v>366</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>402</v>
+        <v>127</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>452</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>203</v>
+        <v>429</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>140</v>
+        <v>366</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>467</v>
+        <v>57</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>453</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>204</v>
+        <v>430</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>140</v>
+        <v>366</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>406</v>
+        <v>131</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>454</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>205</v>
+        <v>431</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>140</v>
+        <v>366</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>405</v>
+        <v>130</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>455</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="5" t="s">
-        <v>206</v>
+        <v>432</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>140</v>
+        <v>366</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>404</v>
+        <v>129</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>456</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="5" t="s">
-        <v>214</v>
+        <v>440</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>140</v>
+        <v>366</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>401</v>
+        <v>126</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>457</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="5" t="s">
-        <v>211</v>
+        <v>437</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>140</v>
+        <v>366</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>160</v>
+        <v>386</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>458</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="45">
       <c r="A10" s="5" t="s">
-        <v>141</v>
+        <v>367</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>140</v>
+        <v>366</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>142</v>
+        <v>368</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>143</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>384</v>
+        <v>109</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>140</v>
+        <v>366</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>436</v>
+        <v>26</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>459</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" customHeight="1">
@@ -16655,26 +16652,26 @@
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>195</v>
+        <v>421</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>188</v>
+        <v>414</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>144</v>
+        <v>370</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>229</v>
+        <v>455</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>145</v>
+        <v>371</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>146</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1">
